--- a/src/assets/tookachi/roster.xlsx
+++ b/src/assets/tookachi/roster.xlsx
@@ -1,37 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Austin\workspace\ihadojo\src\assets\tookhachi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahendry/Code/ihadojo-rewrite/src/assets/tookachi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73BBF60-B2DA-4E0F-8EAD-251AC3B751D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62A2396-C9D4-A64C-8522-3880C87DE427}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2166" yWindow="2166" windowWidth="17280" windowHeight="8994" xr2:uid="{270A1642-C05E-43BC-94F4-89FE0A2FED94}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="9000" xr2:uid="{270A1642-C05E-43BC-94F4-89FE0A2FED94}"/>
   </bookViews>
   <sheets>
     <sheet name="roster" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">roster!$A$1:$H$48</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="114">
   <si>
     <t>dojo</t>
   </si>
@@ -243,7 +240,136 @@
     <t>seikichiiha.jpg</t>
   </si>
   <si>
-    <t>Hanshi, 10</t>
+    <t>Kass</t>
+  </si>
+  <si>
+    <t>Alaska Shido-kan</t>
+  </si>
+  <si>
+    <t>Kenai, Alaska</t>
+  </si>
+  <si>
+    <t>Sandy</t>
+  </si>
+  <si>
+    <t>sandykass.jpg</t>
+  </si>
+  <si>
+    <t>Keeven</t>
+  </si>
+  <si>
+    <t>Macik</t>
+  </si>
+  <si>
+    <t>Hannele</t>
+  </si>
+  <si>
+    <t>Zubeck</t>
+  </si>
+  <si>
+    <t>hannelezubeck.jpg</t>
+  </si>
+  <si>
+    <t>Maija</t>
+  </si>
+  <si>
+    <t>jimkass.JPG</t>
+  </si>
+  <si>
+    <t>keevenmacik.JPG</t>
+  </si>
+  <si>
+    <t>maijazubeck.JPG</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Curtis</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Pangelinan</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Flax</t>
+  </si>
+  <si>
+    <t>Denise</t>
+  </si>
+  <si>
+    <t>Coursey</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Margot</t>
+  </si>
+  <si>
+    <t>Paz</t>
+  </si>
+  <si>
+    <t>Mom</t>
+  </si>
+  <si>
+    <t>Noell</t>
+  </si>
+  <si>
+    <t>Dunlap McMichael</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>McMichael</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Reese</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Bryan</t>
+  </si>
+  <si>
+    <t>Hudson</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>McCloskey</t>
+  </si>
+  <si>
+    <t>Alexandria, Virginia</t>
+  </si>
+  <si>
+    <t>Lorton, Virginia</t>
+  </si>
+  <si>
+    <t>Arlington, Virginia</t>
+  </si>
+  <si>
+    <t>Burke, Virginia</t>
+  </si>
+  <si>
+    <t>Gaithersburg, Maryland</t>
   </si>
 </sst>
 </file>
@@ -595,21 +721,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A3967E-334D-4DA9-9EB0-62515739C97A}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.26171875" customWidth="1"/>
-    <col min="3" max="3" width="16.47265625" customWidth="1"/>
-    <col min="4" max="4" width="24.47265625" customWidth="1"/>
-    <col min="5" max="5" width="10.578125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -635,7 +762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -651,8 +778,8 @@
       <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="F2" t="s">
-        <v>70</v>
+      <c r="F2">
+        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
@@ -661,7 +788,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -684,7 +811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -701,7 +828,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -724,7 +851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -747,7 +874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -770,7 +897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -793,7 +920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -816,7 +943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -839,7 +966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -862,7 +989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -885,7 +1012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -908,7 +1035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -931,7 +1058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -954,7 +1081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -977,7 +1104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1000,7 +1127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1023,7 +1150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1046,7 +1173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1069,7 +1196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1092,7 +1219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1115,7 +1242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1138,7 +1265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1161,7 +1288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1184,7 +1311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1207,7 +1334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1230,7 +1357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1256,7 +1383,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1273,7 +1400,442 @@
         <v>62</v>
       </c>
     </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:H48" xr:uid="{8D7DD68C-45B6-194C-97D4-AA8A4AA96481}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/assets/tookachi/roster.xlsx
+++ b/src/assets/tookachi/roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahendry/Code/ihadojo-rewrite/src/assets/tookachi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62A2396-C9D4-A64C-8522-3880C87DE427}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474DFAFC-EDB2-F446-8376-84F4A7E1D49A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="9000" xr2:uid="{270A1642-C05E-43BC-94F4-89FE0A2FED94}"/>
+    <workbookView xWindow="6960" yWindow="1500" windowWidth="17280" windowHeight="9000" xr2:uid="{270A1642-C05E-43BC-94F4-89FE0A2FED94}"/>
   </bookViews>
   <sheets>
     <sheet name="roster" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="128">
   <si>
     <t>dojo</t>
   </si>
@@ -370,6 +370,48 @@
   </si>
   <si>
     <t>Gaithersburg, Maryland</t>
+  </si>
+  <si>
+    <t>denisecoursey.jpg</t>
+  </si>
+  <si>
+    <t>mattcoursey.jpg</t>
+  </si>
+  <si>
+    <t>margotpaz.jpg</t>
+  </si>
+  <si>
+    <t>margotsmom.jpg</t>
+  </si>
+  <si>
+    <t>noelldunlapmcmichael.jpg</t>
+  </si>
+  <si>
+    <t>noahmcmichael.jpg</t>
+  </si>
+  <si>
+    <t>danielkumar.jpg</t>
+  </si>
+  <si>
+    <t>danielreese.jpg</t>
+  </si>
+  <si>
+    <t>bryanhudson.jpg</t>
+  </si>
+  <si>
+    <t>seanmccloskey.jpg</t>
+  </si>
+  <si>
+    <t>arthurflax.jpg</t>
+  </si>
+  <si>
+    <t>robertocurtis.jpg</t>
+  </si>
+  <si>
+    <t>mariapangelinan.jpg</t>
+  </si>
+  <si>
+    <t>robertpangelinan.png</t>
   </si>
 </sst>
 </file>
@@ -723,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A3967E-334D-4DA9-9EB0-62515739C97A}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1546,6 +1588,9 @@
       <c r="G35" t="s">
         <v>3</v>
       </c>
+      <c r="H35" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -1569,6 +1614,9 @@
       <c r="G36" t="s">
         <v>3</v>
       </c>
+      <c r="H36" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -1592,6 +1640,9 @@
       <c r="G37" t="s">
         <v>3</v>
       </c>
+      <c r="H37" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -1615,6 +1666,9 @@
       <c r="G38" t="s">
         <v>3</v>
       </c>
+      <c r="H38" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -1638,6 +1692,9 @@
       <c r="G39" t="s">
         <v>3</v>
       </c>
+      <c r="H39" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -1661,6 +1718,9 @@
       <c r="G40" t="s">
         <v>3</v>
       </c>
+      <c r="H40" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -1684,6 +1744,9 @@
       <c r="G41" t="s">
         <v>4</v>
       </c>
+      <c r="H41" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -1701,6 +1764,9 @@
       <c r="E42" t="s">
         <v>62</v>
       </c>
+      <c r="H42" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -1724,6 +1790,9 @@
       <c r="G43" t="s">
         <v>4</v>
       </c>
+      <c r="H43" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -1741,6 +1810,9 @@
       <c r="E44" t="s">
         <v>62</v>
       </c>
+      <c r="H44" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -1764,6 +1836,9 @@
       <c r="G45" t="s">
         <v>4</v>
       </c>
+      <c r="H45" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -1787,6 +1862,9 @@
       <c r="G46" t="s">
         <v>4</v>
       </c>
+      <c r="H46" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -1810,6 +1888,9 @@
       <c r="G47" t="s">
         <v>4</v>
       </c>
+      <c r="H47" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -1832,6 +1913,9 @@
       </c>
       <c r="G48" t="s">
         <v>4</v>
+      </c>
+      <c r="H48" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/tookachi/roster.xlsx
+++ b/src/assets/tookachi/roster.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahendry/Code/ihadojo-rewrite/src/assets/tookachi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahendry\workspace\ihadojo.com\src\assets\tookachi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474DFAFC-EDB2-F446-8376-84F4A7E1D49A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="1500" windowWidth="17280" windowHeight="9000" xr2:uid="{270A1642-C05E-43BC-94F4-89FE0A2FED94}"/>
+    <workbookView xWindow="6960" yWindow="1500" windowWidth="17280" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="roster" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">roster!$A$1:$H$48</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="155">
   <si>
     <t>dojo</t>
   </si>
@@ -412,12 +411,93 @@
   </si>
   <si>
     <t>robertpangelinan.png</t>
+  </si>
+  <si>
+    <t>Fortunato</t>
+  </si>
+  <si>
+    <t>Restagno</t>
+  </si>
+  <si>
+    <t>Grand River Karate</t>
+  </si>
+  <si>
+    <t>Waterloo, Ontario</t>
+  </si>
+  <si>
+    <t>Fortunato_Restagno.jpg</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>Cowen</t>
+  </si>
+  <si>
+    <t>Doug_Cowan.jpg</t>
+  </si>
+  <si>
+    <t>Klaus</t>
+  </si>
+  <si>
+    <t>Stegner</t>
+  </si>
+  <si>
+    <t>Klaus_Stegner.jpg</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Bob_Davis.jpg</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Jessup</t>
+  </si>
+  <si>
+    <t>Steven_Jessup.jpg</t>
+  </si>
+  <si>
+    <t>Tricia</t>
+  </si>
+  <si>
+    <t>Burbidge</t>
+  </si>
+  <si>
+    <t>Tricia_Burbidge.jpg</t>
+  </si>
+  <si>
+    <t>Megan</t>
+  </si>
+  <si>
+    <t>McKechnie</t>
+  </si>
+  <si>
+    <t>Megan_McKechnie.jpg</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>Dave_Marks.jpg</t>
+  </si>
+  <si>
+    <t>Laura_Marks.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -435,7 +515,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -443,12 +523,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,23 +866,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A3967E-334D-4DA9-9EB0-62515739C97A}">
-  <dimension ref="A1:H48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -804,7 +909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -830,7 +935,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -853,7 +958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -870,7 +975,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -893,7 +998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -916,7 +1021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -939,7 +1044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -962,7 +1067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -985,7 +1090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1008,7 +1113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1031,7 +1136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1054,7 +1159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1077,7 +1182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1100,7 +1205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1123,7 +1228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1146,7 +1251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1169,7 +1274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1192,7 +1297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1215,7 +1320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1238,7 +1343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1261,7 +1366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1284,7 +1389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1307,7 +1412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1330,7 +1435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1353,7 +1458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1376,7 +1481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1399,7 +1504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1425,7 +1530,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1442,7 +1547,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -1468,7 +1573,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -1488,7 +1593,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -1514,7 +1619,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -1540,7 +1645,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -1566,7 +1671,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -1592,7 +1697,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -1618,7 +1723,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>89</v>
       </c>
@@ -1644,7 +1749,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>90</v>
       </c>
@@ -1670,7 +1775,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -1696,7 +1801,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -1722,7 +1827,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -1748,7 +1853,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -1768,7 +1873,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>98</v>
       </c>
@@ -1794,7 +1899,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -1814,7 +1919,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -1840,7 +1945,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -1866,7 +1971,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>105</v>
       </c>
@@ -1892,7 +1997,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -1918,8 +2023,239 @@
         <v>123</v>
       </c>
     </row>
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="2">
+        <v>6</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="2">
+        <v>3</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="2">
+        <v>3</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="2">
+        <v>3</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="2">
+        <v>2</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" s="2">
+        <v>4</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H48" xr:uid="{8D7DD68C-45B6-194C-97D4-AA8A4AA96481}"/>
+  <autoFilter ref="A1:H48"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/assets/tookachi/roster.xlsx
+++ b/src/assets/tookachi/roster.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="467">
   <si>
     <t>dojo</t>
   </si>
@@ -312,9 +312,6 @@
   </si>
   <si>
     <t>Paz</t>
-  </si>
-  <si>
-    <t>Mom</t>
   </si>
   <si>
     <t>Noell</t>
@@ -1991,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="H141" sqref="H141"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2080,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2102,7 +2099,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -2128,7 +2125,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2154,7 +2151,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2180,7 +2177,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2206,7 +2203,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2232,7 +2229,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2252,13 +2249,13 @@
         <v>60</v>
       </c>
       <c r="F10" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2284,7 +2281,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2292,7 +2289,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>59</v>
@@ -2310,12 +2307,12 @@
         <v>3</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>33</v>
@@ -2336,7 +2333,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -2362,7 +2359,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -2382,13 +2379,13 @@
         <v>60</v>
       </c>
       <c r="F15" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -2414,7 +2411,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2440,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2466,7 +2463,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -2492,7 +2489,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -2518,7 +2515,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -2541,10 +2538,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -2570,7 +2567,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -2596,7 +2593,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2622,7 +2619,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2672,7 +2669,7 @@
         <v>3</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -2698,7 +2695,7 @@
         <v>3</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2718,7 +2715,7 @@
         <v>60</v>
       </c>
       <c r="F28" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>3</v>
@@ -2884,7 +2881,7 @@
         <v>84</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>60</v>
@@ -2896,7 +2893,7 @@
         <v>3</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -2910,7 +2907,7 @@
         <v>84</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>60</v>
@@ -2922,7 +2919,7 @@
         <v>3</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -2936,19 +2933,19 @@
         <v>84</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>60</v>
       </c>
       <c r="F37" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -2962,7 +2959,7 @@
         <v>84</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>60</v>
@@ -2974,7 +2971,7 @@
         <v>3</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -2988,7 +2985,7 @@
         <v>84</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>60</v>
@@ -3000,7 +2997,7 @@
         <v>3</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -3014,7 +3011,7 @@
         <v>84</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>60</v>
@@ -3026,7 +3023,7 @@
         <v>3</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -3040,7 +3037,7 @@
         <v>84</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>60</v>
@@ -3052,12 +3049,12 @@
         <v>4</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>94</v>
@@ -3066,7 +3063,7 @@
         <v>84</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>60</v>
@@ -3074,21 +3071,21 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>60</v>
@@ -3100,21 +3097,21 @@
         <v>4</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>99</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>60</v>
@@ -3122,21 +3119,21 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>60</v>
@@ -3148,21 +3145,21 @@
         <v>4</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>60</v>
@@ -3174,21 +3171,21 @@
         <v>4</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>104</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>60</v>
@@ -3200,21 +3197,21 @@
         <v>4</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>60</v>
@@ -3226,21 +3223,21 @@
         <v>4</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>61</v>
@@ -3252,21 +3249,21 @@
         <v>3</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>61</v>
@@ -3278,21 +3275,21 @@
         <v>3</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="C51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>61</v>
@@ -3304,21 +3301,21 @@
         <v>3</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C52" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>61</v>
@@ -3330,21 +3327,21 @@
         <v>3</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="C53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>61</v>
@@ -3356,21 +3353,21 @@
         <v>3</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="C54" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>61</v>
@@ -3382,21 +3379,21 @@
         <v>4</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="C55" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>61</v>
@@ -3408,21 +3405,21 @@
         <v>4</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="C56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>61</v>
@@ -3434,7 +3431,7 @@
         <v>4</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3442,13 +3439,13 @@
         <v>42</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>61</v>
@@ -3456,21 +3453,21 @@
       <c r="F57" s="3"/>
       <c r="G57" s="1"/>
       <c r="H57" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="C58" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="D58" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>156</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>60</v>
@@ -3482,24 +3479,24 @@
         <v>3</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="D59" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="E59" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>162</v>
       </c>
       <c r="F59" s="11">
         <v>6</v>
@@ -3508,21 +3505,21 @@
         <v>3</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="C60" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>165</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>60</v>
@@ -3534,21 +3531,21 @@
         <v>3</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="C61" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>167</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>168</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>60</v>
@@ -3560,21 +3557,21 @@
         <v>3</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B62" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="D62" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>156</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>60</v>
@@ -3586,21 +3583,21 @@
         <v>3</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="C63" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="D63" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>175</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>60</v>
@@ -3612,21 +3609,21 @@
         <v>3</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B64" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>60</v>
@@ -3638,21 +3635,21 @@
         <v>3</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B65" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="C65" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>60</v>
@@ -3664,24 +3661,24 @@
         <v>3</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B66" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C66" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>183</v>
-      </c>
       <c r="E66" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F66" s="11">
         <v>4</v>
@@ -3690,21 +3687,21 @@
         <v>3</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B67" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D67" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>186</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>60</v>
@@ -3716,21 +3713,21 @@
         <v>3</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="C68" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>189</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>60</v>
@@ -3742,22 +3739,22 @@
         <v>3</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="C69" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D69" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>193</v>
-      </c>
       <c r="E69" s="11" t="s">
         <v>60</v>
       </c>
@@ -3768,99 +3765,99 @@
         <v>3</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B70" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="C70" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F70" s="11">
+        <v>3</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H70" s="15" t="s">
         <v>195</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F70" s="11">
-        <v>3</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="C71" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="D71" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F71" s="11">
+        <v>3</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H71" s="15" t="s">
         <v>199</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F71" s="11">
-        <v>3</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H71" s="15" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B72" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="C72" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C72" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D72" s="11" t="s">
+      <c r="E72" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F72" s="11">
+        <v>3</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="15" t="s">
         <v>203</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F72" s="11">
-        <v>3</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="15" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B73" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>206</v>
-      </c>
       <c r="C73" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>60</v>
@@ -3872,21 +3869,21 @@
         <v>3</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="C74" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>208</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>209</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>60</v>
@@ -3898,21 +3895,21 @@
         <v>3</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>211</v>
-      </c>
       <c r="C75" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>60</v>
@@ -3924,21 +3921,21 @@
         <v>3</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B76" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>214</v>
-      </c>
       <c r="C76" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>60</v>
@@ -3950,21 +3947,21 @@
         <v>3</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B77" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="C77" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>60</v>
@@ -3976,21 +3973,21 @@
         <v>3</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B78" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="B78" s="11" t="s">
-        <v>221</v>
-      </c>
       <c r="C78" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>60</v>
@@ -4002,21 +3999,21 @@
         <v>3</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B79" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="C79" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D79" s="11" t="s">
         <v>223</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>224</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>60</v>
@@ -4028,7 +4025,7 @@
         <v>3</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -4036,13 +4033,13 @@
         <v>42</v>
       </c>
       <c r="B80" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D80" s="11" t="s">
         <v>226</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>60</v>
@@ -4054,21 +4051,21 @@
         <v>3</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B81" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="C81" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D81" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>231</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>60</v>
@@ -4080,21 +4077,21 @@
         <v>3</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C82" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>175</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>60</v>
@@ -4106,7 +4103,7 @@
         <v>3</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -4114,13 +4111,13 @@
         <v>42</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E83" s="11" t="s">
         <v>60</v>
@@ -4132,24 +4129,24 @@
         <v>4</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B84" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="B84" s="11" t="s">
-        <v>236</v>
-      </c>
       <c r="C84" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D84" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="E84" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>162</v>
       </c>
       <c r="F84" s="11">
         <v>1</v>
@@ -4158,21 +4155,21 @@
         <v>4</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B85" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>238</v>
-      </c>
       <c r="C85" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D85" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>175</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>60</v>
@@ -4184,7 +4181,7 @@
         <v>4</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -4192,13 +4189,13 @@
         <v>82</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>60</v>
@@ -4210,24 +4207,24 @@
         <v>4</v>
       </c>
       <c r="H86" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B87" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="B87" s="11" t="s">
-        <v>242</v>
-      </c>
       <c r="C87" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="E87" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>162</v>
       </c>
       <c r="F87" s="16">
         <v>1</v>
@@ -4236,21 +4233,21 @@
         <v>3</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>60</v>
@@ -4258,21 +4255,21 @@
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
       <c r="H88" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D89" s="11" t="s">
         <v>244</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>245</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>60</v>
@@ -4280,21 +4277,21 @@
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
       <c r="H89" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B90" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="B90" s="11" t="s">
-        <v>247</v>
-      </c>
       <c r="C90" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D90" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>175</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>60</v>
@@ -4302,21 +4299,21 @@
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
       <c r="H90" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B91" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>249</v>
-      </c>
       <c r="C91" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E91" s="11" t="s">
         <v>60</v>
@@ -4324,21 +4321,21 @@
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
       <c r="H91" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C92" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D92" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>175</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>60</v>
@@ -4346,47 +4343,47 @@
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
       <c r="H92" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B93" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="C93" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="D93" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="E93" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F93" s="11">
+        <v>3</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H93" s="12" t="s">
         <v>272</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F93" s="11">
-        <v>3</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H93" s="12" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B94" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="B94" s="11" t="s">
-        <v>275</v>
-      </c>
       <c r="C94" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D94" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>272</v>
       </c>
       <c r="E94" s="11" t="s">
         <v>60</v>
@@ -4398,21 +4395,21 @@
         <v>3</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C95" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D95" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>272</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>60</v>
@@ -4424,21 +4421,21 @@
         <v>4</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C96" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D96" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>272</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>60</v>
@@ -4450,21 +4447,21 @@
         <v>4</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B97" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="B97" s="11" t="s">
-        <v>280</v>
-      </c>
       <c r="C97" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D97" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>272</v>
       </c>
       <c r="E97" s="11" t="s">
         <v>60</v>
@@ -4476,21 +4473,21 @@
         <v>4</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C98" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="B98" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C98" s="11" t="s">
+      <c r="D98" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>285</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>61</v>
@@ -4502,21 +4499,21 @@
         <v>3</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C99" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D99" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>285</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>61</v>
@@ -4528,21 +4525,21 @@
         <v>3</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B100" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="B100" s="11" t="s">
-        <v>288</v>
-      </c>
       <c r="C100" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D100" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>285</v>
       </c>
       <c r="E100" s="11" t="s">
         <v>61</v>
@@ -4554,21 +4551,21 @@
         <v>3</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B101" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="B101" s="11" t="s">
-        <v>290</v>
-      </c>
       <c r="C101" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D101" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>285</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>61</v>
@@ -4580,21 +4577,21 @@
         <v>3</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C102" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D102" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>285</v>
       </c>
       <c r="E102" s="11" t="s">
         <v>61</v>
@@ -4606,21 +4603,21 @@
         <v>4</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B103" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="B103" s="11" t="s">
-        <v>293</v>
-      </c>
       <c r="C103" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D103" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>285</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>61</v>
@@ -4632,7 +4629,7 @@
         <v>3</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -4640,13 +4637,13 @@
         <v>20</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C104" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D104" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>285</v>
       </c>
       <c r="E104" s="11" t="s">
         <v>61</v>
@@ -4654,21 +4651,21 @@
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
       <c r="H104" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B105" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="C105" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D105" s="11" t="s">
         <v>295</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>296</v>
       </c>
       <c r="E105" s="11" t="s">
         <v>61</v>
@@ -4680,21 +4677,21 @@
         <v>3</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B106" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="B106" s="11" t="s">
-        <v>299</v>
-      </c>
       <c r="C106" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D106" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>285</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>61</v>
@@ -4706,21 +4703,21 @@
         <v>3</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B107" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="B107" s="11" t="s">
-        <v>301</v>
-      </c>
       <c r="C107" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D107" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>285</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>61</v>
@@ -4735,16 +4732,16 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C108" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D108" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>285</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>61</v>
@@ -4755,16 +4752,16 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B109" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="B109" s="11" t="s">
-        <v>304</v>
-      </c>
       <c r="C109" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D109" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>285</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>61</v>
@@ -4781,10 +4778,10 @@
         <v>24</v>
       </c>
       <c r="C110" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D110" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>285</v>
       </c>
       <c r="E110" s="11" t="s">
         <v>61</v>
@@ -4796,21 +4793,21 @@
         <v>3</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="D111" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>60</v>
@@ -4822,21 +4819,21 @@
         <v>3</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>319</v>
+      </c>
+      <c r="B112" t="s">
         <v>320</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
+        <v>316</v>
+      </c>
+      <c r="D112" t="s">
         <v>321</v>
-      </c>
-      <c r="C112" t="s">
-        <v>317</v>
-      </c>
-      <c r="D112" t="s">
-        <v>322</v>
       </c>
       <c r="E112" t="s">
         <v>60</v>
@@ -4848,22 +4845,22 @@
         <v>3</v>
       </c>
       <c r="H112" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>323</v>
+      </c>
+      <c r="B113" t="s">
         <v>324</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
+        <v>316</v>
+      </c>
+      <c r="D113" t="s">
         <v>325</v>
       </c>
-      <c r="C113" t="s">
-        <v>317</v>
-      </c>
-      <c r="D113" t="s">
-        <v>326</v>
-      </c>
       <c r="E113" t="s">
         <v>60</v>
       </c>
@@ -4874,22 +4871,22 @@
         <v>3</v>
       </c>
       <c r="H113" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>326</v>
+      </c>
+      <c r="B114" t="s">
         <v>327</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
+        <v>316</v>
+      </c>
+      <c r="D114" t="s">
         <v>328</v>
       </c>
-      <c r="C114" t="s">
-        <v>317</v>
-      </c>
-      <c r="D114" t="s">
-        <v>329</v>
-      </c>
       <c r="E114" t="s">
         <v>60</v>
       </c>
@@ -4900,22 +4897,22 @@
         <v>3</v>
       </c>
       <c r="H114" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B115" t="s">
+        <v>315</v>
+      </c>
+      <c r="C115" t="s">
         <v>316</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>317</v>
       </c>
-      <c r="D115" t="s">
-        <v>318</v>
-      </c>
       <c r="E115" t="s">
         <v>60</v>
       </c>
@@ -4926,22 +4923,22 @@
         <v>3</v>
       </c>
       <c r="H115" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>330</v>
+      </c>
+      <c r="B116" t="s">
         <v>331</v>
       </c>
-      <c r="B116" t="s">
-        <v>332</v>
-      </c>
       <c r="C116" t="s">
+        <v>316</v>
+      </c>
+      <c r="D116" t="s">
         <v>317</v>
       </c>
-      <c r="D116" t="s">
-        <v>318</v>
-      </c>
       <c r="E116" t="s">
         <v>60</v>
       </c>
@@ -4952,21 +4949,21 @@
         <v>3</v>
       </c>
       <c r="H116" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>332</v>
+      </c>
+      <c r="B117" t="s">
         <v>333</v>
       </c>
-      <c r="B117" t="s">
-        <v>334</v>
-      </c>
       <c r="C117" t="s">
+        <v>316</v>
+      </c>
+      <c r="D117" t="s">
         <v>317</v>
-      </c>
-      <c r="D117" t="s">
-        <v>318</v>
       </c>
       <c r="E117" t="s">
         <v>60</v>
@@ -4978,21 +4975,21 @@
         <v>3</v>
       </c>
       <c r="H117" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
+        <v>334</v>
+      </c>
+      <c r="B118" t="s">
         <v>335</v>
       </c>
-      <c r="B118" t="s">
-        <v>336</v>
-      </c>
       <c r="C118" t="s">
+        <v>316</v>
+      </c>
+      <c r="D118" t="s">
         <v>317</v>
-      </c>
-      <c r="D118" t="s">
-        <v>318</v>
       </c>
       <c r="E118" t="s">
         <v>60</v>
@@ -5004,7 +5001,7 @@
         <v>3</v>
       </c>
       <c r="H118" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -5012,13 +5009,13 @@
         <v>85</v>
       </c>
       <c r="B119" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C119" t="s">
+        <v>316</v>
+      </c>
+      <c r="D119" t="s">
         <v>317</v>
-      </c>
-      <c r="D119" t="s">
-        <v>318</v>
       </c>
       <c r="E119" t="s">
         <v>60</v>
@@ -5030,7 +5027,7 @@
         <v>3</v>
       </c>
       <c r="H119" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -5038,13 +5035,13 @@
         <v>52</v>
       </c>
       <c r="B120" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C120" t="s">
+        <v>316</v>
+      </c>
+      <c r="D120" t="s">
         <v>317</v>
-      </c>
-      <c r="D120" t="s">
-        <v>318</v>
       </c>
       <c r="E120" t="s">
         <v>60</v>
@@ -5056,21 +5053,21 @@
         <v>4</v>
       </c>
       <c r="H120" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
+        <v>336</v>
+      </c>
+      <c r="B121" t="s">
         <v>337</v>
       </c>
-      <c r="B121" t="s">
-        <v>338</v>
-      </c>
       <c r="C121" t="s">
+        <v>316</v>
+      </c>
+      <c r="D121" t="s">
         <v>317</v>
-      </c>
-      <c r="D121" t="s">
-        <v>318</v>
       </c>
       <c r="E121" t="s">
         <v>60</v>
@@ -5082,21 +5079,21 @@
         <v>3</v>
       </c>
       <c r="H121" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B122" t="s">
+        <v>338</v>
+      </c>
+      <c r="C122" t="s">
+        <v>316</v>
+      </c>
+      <c r="D122" t="s">
         <v>339</v>
-      </c>
-      <c r="C122" t="s">
-        <v>317</v>
-      </c>
-      <c r="D122" t="s">
-        <v>340</v>
       </c>
       <c r="E122" t="s">
         <v>60</v>
@@ -5108,21 +5105,21 @@
         <v>4</v>
       </c>
       <c r="H122" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B123" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C123" t="s">
+        <v>316</v>
+      </c>
+      <c r="D123" t="s">
         <v>317</v>
-      </c>
-      <c r="D123" t="s">
-        <v>318</v>
       </c>
       <c r="E123" t="s">
         <v>60</v>
@@ -5134,21 +5131,21 @@
         <v>4</v>
       </c>
       <c r="H123" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B124" t="s">
+        <v>320</v>
+      </c>
+      <c r="C124" t="s">
+        <v>316</v>
+      </c>
+      <c r="D124" t="s">
         <v>321</v>
-      </c>
-      <c r="C124" t="s">
-        <v>317</v>
-      </c>
-      <c r="D124" t="s">
-        <v>322</v>
       </c>
       <c r="E124" t="s">
         <v>60</v>
@@ -5160,21 +5157,21 @@
         <v>4</v>
       </c>
       <c r="H124" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
+        <v>342</v>
+      </c>
+      <c r="B125" t="s">
         <v>343</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
+        <v>316</v>
+      </c>
+      <c r="D125" t="s">
         <v>344</v>
-      </c>
-      <c r="C125" t="s">
-        <v>317</v>
-      </c>
-      <c r="D125" t="s">
-        <v>345</v>
       </c>
       <c r="E125" t="s">
         <v>60</v>
@@ -5186,81 +5183,81 @@
         <v>4</v>
       </c>
       <c r="H125" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B126" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C126" t="s">
+        <v>316</v>
+      </c>
+      <c r="D126" t="s">
         <v>317</v>
       </c>
-      <c r="D126" t="s">
-        <v>318</v>
-      </c>
       <c r="E126" t="s">
         <v>60</v>
       </c>
       <c r="H126" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B127" t="s">
+        <v>324</v>
+      </c>
+      <c r="C127" t="s">
+        <v>316</v>
+      </c>
+      <c r="D127" t="s">
         <v>325</v>
       </c>
-      <c r="C127" t="s">
-        <v>317</v>
-      </c>
-      <c r="D127" t="s">
-        <v>326</v>
-      </c>
       <c r="E127" t="s">
         <v>60</v>
       </c>
       <c r="H127" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B128" t="s">
+        <v>343</v>
+      </c>
+      <c r="C128" t="s">
+        <v>316</v>
+      </c>
+      <c r="D128" t="s">
         <v>344</v>
       </c>
-      <c r="C128" t="s">
-        <v>317</v>
-      </c>
-      <c r="D128" t="s">
-        <v>345</v>
-      </c>
       <c r="E128" t="s">
         <v>60</v>
       </c>
       <c r="H128" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
+        <v>389</v>
+      </c>
+      <c r="B129" t="s">
         <v>390</v>
-      </c>
-      <c r="B129" t="s">
-        <v>391</v>
       </c>
       <c r="C129" t="s">
         <v>59</v>
       </c>
       <c r="D129" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E129" t="s">
         <v>60</v>
@@ -5272,21 +5269,21 @@
         <v>3</v>
       </c>
       <c r="H129" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
+        <v>392</v>
+      </c>
+      <c r="B130" t="s">
         <v>393</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>394</v>
       </c>
-      <c r="C130" t="s">
-        <v>395</v>
-      </c>
       <c r="D130" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E130" t="s">
         <v>60</v>
@@ -5298,21 +5295,21 @@
         <v>3</v>
       </c>
       <c r="H130" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B131" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C131" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D131" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E131" t="s">
         <v>60</v>
@@ -5324,21 +5321,21 @@
         <v>4</v>
       </c>
       <c r="H131" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
+        <v>396</v>
+      </c>
+      <c r="B132" t="s">
         <v>397</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>398</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>399</v>
-      </c>
-      <c r="D132" t="s">
-        <v>400</v>
       </c>
       <c r="E132" t="s">
         <v>60</v>
@@ -5350,41 +5347,41 @@
         <v>4</v>
       </c>
       <c r="H132" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
+        <v>400</v>
+      </c>
+      <c r="B133" t="s">
         <v>401</v>
       </c>
-      <c r="B133" t="s">
-        <v>402</v>
-      </c>
       <c r="C133" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D133" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E133" t="s">
         <v>60</v>
       </c>
       <c r="H133" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
+        <v>407</v>
+      </c>
+      <c r="B134" t="s">
         <v>408</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>409</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>410</v>
-      </c>
-      <c r="D134" t="s">
-        <v>411</v>
       </c>
       <c r="E134" t="s">
         <v>60</v>
@@ -5396,22 +5393,22 @@
         <v>3</v>
       </c>
       <c r="H134" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B135" t="s">
+        <v>408</v>
+      </c>
+      <c r="C135" t="s">
         <v>409</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>410</v>
       </c>
-      <c r="D135" t="s">
-        <v>411</v>
-      </c>
       <c r="E135" t="s">
         <v>60</v>
       </c>
@@ -5422,21 +5419,21 @@
         <v>3</v>
       </c>
       <c r="H135" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>61</v>
@@ -5444,22 +5441,22 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I136" s="1"/>
     </row>
     <row r="137" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C137" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>61</v>
@@ -5467,22 +5464,22 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I137" s="1"/>
     </row>
     <row r="138" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="C138" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>61</v>
@@ -5490,22 +5487,22 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I138" s="1"/>
     </row>
     <row r="139" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="C139" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>61</v>
@@ -5517,22 +5514,22 @@
         <v>4</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I139" s="1"/>
     </row>
     <row r="140" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>424</v>
-      </c>
       <c r="C140" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>61</v>
@@ -5544,22 +5541,22 @@
         <v>4</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I140" s="1"/>
     </row>
     <row r="141" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="C141" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>61</v>
@@ -5571,22 +5568,22 @@
         <v>4</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I141" s="1"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B142" t="s">
         <v>27</v>
       </c>
       <c r="C142" t="s">
+        <v>433</v>
+      </c>
+      <c r="D142" t="s">
         <v>434</v>
-      </c>
-      <c r="D142" t="s">
-        <v>435</v>
       </c>
       <c r="E142" t="s">
         <v>60</v>
@@ -5598,21 +5595,21 @@
         <v>3</v>
       </c>
       <c r="H142" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B143" t="s">
         <v>27</v>
       </c>
       <c r="C143" t="s">
+        <v>433</v>
+      </c>
+      <c r="D143" t="s">
         <v>434</v>
-      </c>
-      <c r="D143" t="s">
-        <v>435</v>
       </c>
       <c r="E143" t="s">
         <v>60</v>
@@ -5624,21 +5621,21 @@
         <v>3</v>
       </c>
       <c r="H143" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
+        <v>438</v>
+      </c>
+      <c r="B144" t="s">
         <v>439</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
+        <v>433</v>
+      </c>
+      <c r="D144" t="s">
         <v>440</v>
-      </c>
-      <c r="C144" t="s">
-        <v>434</v>
-      </c>
-      <c r="D144" t="s">
-        <v>441</v>
       </c>
       <c r="E144" t="s">
         <v>60</v>
@@ -5650,21 +5647,21 @@
         <v>3</v>
       </c>
       <c r="H144" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
+        <v>442</v>
+      </c>
+      <c r="B145" t="s">
         <v>443</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>444</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>445</v>
-      </c>
-      <c r="D145" t="s">
-        <v>446</v>
       </c>
       <c r="E145" t="s">
         <v>60</v>
@@ -5676,21 +5673,21 @@
         <v>3</v>
       </c>
       <c r="H145" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
+        <v>447</v>
+      </c>
+      <c r="B146" t="s">
         <v>448</v>
       </c>
-      <c r="B146" t="s">
-        <v>449</v>
-      </c>
       <c r="C146" t="s">
+        <v>444</v>
+      </c>
+      <c r="D146" t="s">
         <v>445</v>
-      </c>
-      <c r="D146" t="s">
-        <v>446</v>
       </c>
       <c r="E146" t="s">
         <v>60</v>
@@ -5702,21 +5699,21 @@
         <v>3</v>
       </c>
       <c r="H146" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>450</v>
+      </c>
+      <c r="B147" t="s">
         <v>451</v>
       </c>
-      <c r="B147" t="s">
-        <v>452</v>
-      </c>
       <c r="C147" t="s">
+        <v>444</v>
+      </c>
+      <c r="D147" t="s">
         <v>445</v>
-      </c>
-      <c r="D147" t="s">
-        <v>446</v>
       </c>
       <c r="E147" t="s">
         <v>60</v>
@@ -5728,47 +5725,47 @@
         <v>3</v>
       </c>
       <c r="H147" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>453</v>
+      </c>
+      <c r="B148" t="s">
         <v>454</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
+        <v>444</v>
+      </c>
+      <c r="D148" t="s">
+        <v>445</v>
+      </c>
+      <c r="E148" t="s">
+        <v>60</v>
+      </c>
+      <c r="F148">
+        <v>2</v>
+      </c>
+      <c r="G148" t="s">
+        <v>3</v>
+      </c>
+      <c r="H148" t="s">
         <v>455</v>
-      </c>
-      <c r="C148" t="s">
-        <v>445</v>
-      </c>
-      <c r="D148" t="s">
-        <v>446</v>
-      </c>
-      <c r="E148" t="s">
-        <v>60</v>
-      </c>
-      <c r="F148">
-        <v>1</v>
-      </c>
-      <c r="G148" t="s">
-        <v>3</v>
-      </c>
-      <c r="H148" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>456</v>
+      </c>
+      <c r="B149" t="s">
         <v>457</v>
       </c>
-      <c r="B149" t="s">
-        <v>458</v>
-      </c>
       <c r="C149" t="s">
+        <v>444</v>
+      </c>
+      <c r="D149" t="s">
         <v>445</v>
-      </c>
-      <c r="D149" t="s">
-        <v>446</v>
       </c>
       <c r="E149" t="s">
         <v>60</v>
@@ -5780,21 +5777,21 @@
         <v>4</v>
       </c>
       <c r="H149" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
+        <v>459</v>
+      </c>
+      <c r="B150" t="s">
         <v>460</v>
       </c>
-      <c r="B150" t="s">
-        <v>461</v>
-      </c>
       <c r="C150" t="s">
+        <v>444</v>
+      </c>
+      <c r="D150" t="s">
         <v>445</v>
-      </c>
-      <c r="D150" t="s">
-        <v>446</v>
       </c>
       <c r="E150" t="s">
         <v>60</v>
@@ -5806,47 +5803,47 @@
         <v>4</v>
       </c>
       <c r="H150" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>462</v>
+      </c>
+      <c r="B151" t="s">
+        <v>460</v>
+      </c>
+      <c r="C151" t="s">
+        <v>444</v>
+      </c>
+      <c r="D151" t="s">
+        <v>445</v>
+      </c>
+      <c r="E151" t="s">
+        <v>60</v>
+      </c>
+      <c r="H151" t="s">
         <v>463</v>
-      </c>
-      <c r="B151" t="s">
-        <v>461</v>
-      </c>
-      <c r="C151" t="s">
-        <v>445</v>
-      </c>
-      <c r="D151" t="s">
-        <v>446</v>
-      </c>
-      <c r="E151" t="s">
-        <v>60</v>
-      </c>
-      <c r="H151" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
+        <v>464</v>
+      </c>
+      <c r="B152" t="s">
+        <v>460</v>
+      </c>
+      <c r="C152" t="s">
+        <v>444</v>
+      </c>
+      <c r="D152" t="s">
+        <v>445</v>
+      </c>
+      <c r="E152" t="s">
+        <v>60</v>
+      </c>
+      <c r="H152" t="s">
         <v>465</v>
-      </c>
-      <c r="B152" t="s">
-        <v>461</v>
-      </c>
-      <c r="C152" t="s">
-        <v>445</v>
-      </c>
-      <c r="D152" t="s">
-        <v>446</v>
-      </c>
-      <c r="E152" t="s">
-        <v>60</v>
-      </c>
-      <c r="H152" t="s">
-        <v>466</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/tookachi/roster.xlsx
+++ b/src/assets/tookachi/roster.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="510">
   <si>
     <t>dojo</t>
   </si>
@@ -1476,6 +1476,135 @@
   </si>
   <si>
     <t>Elliott St-Pierre.JPG</t>
+  </si>
+  <si>
+    <t>Codibanks.jpg</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>Moralez</t>
+  </si>
+  <si>
+    <t>Maywood</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>Senak</t>
+  </si>
+  <si>
+    <t>Maywood, New Jersey</t>
+  </si>
+  <si>
+    <t>Lauren</t>
+  </si>
+  <si>
+    <t>Moran</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Volker</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Kearns</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Gabe</t>
+  </si>
+  <si>
+    <t>Valdes</t>
+  </si>
+  <si>
+    <t>Demitrius</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Esemplare</t>
+  </si>
+  <si>
+    <t>Carolyn</t>
+  </si>
+  <si>
+    <t>McDermott</t>
+  </si>
+  <si>
+    <t>Michele</t>
+  </si>
+  <si>
+    <t>Mitch</t>
+  </si>
+  <si>
+    <t>Cooperman</t>
+  </si>
+  <si>
+    <t>Carolyn Mcdermott.jpg</t>
+  </si>
+  <si>
+    <t>Michelle Mcdermott.jpg</t>
+  </si>
+  <si>
+    <t>Tom Kearns.jpeg</t>
+  </si>
+  <si>
+    <t>Gabe Valdes.jpg</t>
+  </si>
+  <si>
+    <t>Matt Senak.JPG</t>
+  </si>
+  <si>
+    <t>Mike Senak.JPG</t>
+  </si>
+  <si>
+    <t>Nina Senak.JPG</t>
+  </si>
+  <si>
+    <t>Demitrius Valdes.JPG</t>
+  </si>
+  <si>
+    <t>Susan Volker.JPG</t>
+  </si>
+  <si>
+    <t>Dave Senak.jpg</t>
+  </si>
+  <si>
+    <t>EsemplareTHeadshot.jpg</t>
+  </si>
+  <si>
+    <t>Mitchell Cooperman.jpg</t>
+  </si>
+  <si>
+    <t>Mason Senak.jpg</t>
+  </si>
+  <si>
+    <t>Christopher Kearns.jpeg</t>
+  </si>
+  <si>
+    <t>Jesssica Senak.jpg</t>
+  </si>
+  <si>
+    <t>Lauren Moran.jpg</t>
   </si>
 </sst>
 </file>
@@ -1986,23 +2115,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:I168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="H154" sqref="H154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>55</v>
       </c>
@@ -2028,7 +2157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>53</v>
       </c>
@@ -2054,7 +2183,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>52</v>
       </c>
@@ -2080,7 +2209,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>51</v>
       </c>
@@ -2102,7 +2231,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>38</v>
       </c>
@@ -2128,7 +2257,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>50</v>
       </c>
@@ -2154,7 +2283,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>49</v>
       </c>
@@ -2180,7 +2309,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>48</v>
       </c>
@@ -2206,7 +2335,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>47</v>
       </c>
@@ -2232,7 +2361,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>36</v>
       </c>
@@ -2258,7 +2387,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>37</v>
       </c>
@@ -2284,7 +2413,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
@@ -2310,7 +2439,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>387</v>
       </c>
@@ -2336,7 +2465,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>38</v>
       </c>
@@ -2362,7 +2491,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>39</v>
       </c>
@@ -2388,7 +2517,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>40</v>
       </c>
@@ -2414,7 +2543,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>41</v>
       </c>
@@ -2440,7 +2569,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>42</v>
       </c>
@@ -2466,7 +2595,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>43</v>
       </c>
@@ -2492,7 +2621,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>44</v>
       </c>
@@ -2518,7 +2647,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>45</v>
       </c>
@@ -2544,7 +2673,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>46</v>
       </c>
@@ -2570,7 +2699,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>14</v>
       </c>
@@ -2596,7 +2725,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>16</v>
       </c>
@@ -2622,7 +2751,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>19</v>
       </c>
@@ -2646,7 +2775,7 @@
       </c>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>20</v>
       </c>
@@ -2672,7 +2801,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>23</v>
       </c>
@@ -2698,7 +2827,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>6</v>
       </c>
@@ -2724,7 +2853,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>54</v>
       </c>
@@ -2744,7 +2873,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>50</v>
       </c>
@@ -2770,7 +2899,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>71</v>
       </c>
@@ -2792,7 +2921,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>73</v>
       </c>
@@ -2818,7 +2947,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>75</v>
       </c>
@@ -2844,7 +2973,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>78</v>
       </c>
@@ -2870,7 +2999,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>82</v>
       </c>
@@ -2896,7 +3025,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>85</v>
       </c>
@@ -2922,7 +3051,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>87</v>
       </c>
@@ -2948,7 +3077,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>88</v>
       </c>
@@ -2974,7 +3103,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>90</v>
       </c>
@@ -3000,7 +3129,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>92</v>
       </c>
@@ -3026,7 +3155,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>93</v>
       </c>
@@ -3052,12 +3181,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>93</v>
+        <v>468</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>94</v>
+        <v>469</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>84</v>
@@ -3074,7 +3203,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>95</v>
       </c>
@@ -3100,7 +3229,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>97</v>
       </c>
@@ -3122,7 +3251,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>99</v>
       </c>
@@ -3148,7 +3277,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>99</v>
       </c>
@@ -3174,7 +3303,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>102</v>
       </c>
@@ -3200,7 +3329,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>104</v>
       </c>
@@ -3226,7 +3355,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>125</v>
       </c>
@@ -3252,7 +3381,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>130</v>
       </c>
@@ -3278,7 +3407,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>133</v>
       </c>
@@ -3304,7 +3433,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>136</v>
       </c>
@@ -3330,7 +3459,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
         <v>139</v>
       </c>
@@ -3356,7 +3485,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>142</v>
       </c>
@@ -3382,7 +3511,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>145</v>
       </c>
@@ -3408,7 +3537,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>148</v>
       </c>
@@ -3434,7 +3563,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
         <v>42</v>
       </c>
@@ -3456,7 +3585,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>152</v>
       </c>
@@ -3482,7 +3611,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>157</v>
       </c>
@@ -3508,7 +3637,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>162</v>
       </c>
@@ -3534,7 +3663,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>165</v>
       </c>
@@ -3560,7 +3689,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>169</v>
       </c>
@@ -3586,7 +3715,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>171</v>
       </c>
@@ -3612,7 +3741,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>165</v>
       </c>
@@ -3638,7 +3767,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>177</v>
       </c>
@@ -3664,7 +3793,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>99</v>
       </c>
@@ -3690,7 +3819,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>99</v>
       </c>
@@ -3716,7 +3845,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>186</v>
       </c>
@@ -3742,7 +3871,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>190</v>
       </c>
@@ -3768,7 +3897,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>193</v>
       </c>
@@ -3794,7 +3923,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>196</v>
       </c>
@@ -3820,7 +3949,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>200</v>
       </c>
@@ -3846,7 +3975,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>204</v>
       </c>
@@ -3872,7 +4001,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>206</v>
       </c>
@@ -3898,7 +4027,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>209</v>
       </c>
@@ -3924,7 +4053,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>212</v>
       </c>
@@ -3950,7 +4079,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>215</v>
       </c>
@@ -3976,7 +4105,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>219</v>
       </c>
@@ -4002,7 +4131,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>221</v>
       </c>
@@ -4028,7 +4157,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>42</v>
       </c>
@@ -4054,7 +4183,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>228</v>
       </c>
@@ -4080,7 +4209,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>232</v>
       </c>
@@ -4106,7 +4235,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>42</v>
       </c>
@@ -4132,7 +4261,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>234</v>
       </c>
@@ -4158,7 +4287,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>236</v>
       </c>
@@ -4184,7 +4313,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>82</v>
       </c>
@@ -4210,7 +4339,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>240</v>
       </c>
@@ -4236,7 +4365,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>242</v>
       </c>
@@ -4258,7 +4387,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>243</v>
       </c>
@@ -4280,7 +4409,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>245</v>
       </c>
@@ -4302,7 +4431,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>247</v>
       </c>
@@ -4324,7 +4453,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>250</v>
       </c>
@@ -4346,7 +4475,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>268</v>
       </c>
@@ -4372,7 +4501,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>273</v>
       </c>
@@ -4398,7 +4527,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>281</v>
       </c>
@@ -4424,7 +4553,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>276</v>
       </c>
@@ -4450,7 +4579,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>278</v>
       </c>
@@ -4476,7 +4605,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>282</v>
       </c>
@@ -4502,7 +4631,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>285</v>
       </c>
@@ -4528,7 +4657,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>286</v>
       </c>
@@ -4554,7 +4683,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>288</v>
       </c>
@@ -4580,7 +4709,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>290</v>
       </c>
@@ -4606,7 +4735,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>291</v>
       </c>
@@ -4632,7 +4761,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>20</v>
       </c>
@@ -4654,7 +4783,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>293</v>
       </c>
@@ -4680,7 +4809,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>297</v>
       </c>
@@ -4706,7 +4835,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>299</v>
       </c>
@@ -4728,9 +4857,11 @@
       <c r="G107" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H107" s="12"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H107" s="12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>301</v>
       </c>
@@ -4750,7 +4881,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>302</v>
       </c>
@@ -4770,7 +4901,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>71</v>
       </c>
@@ -4796,7 +4927,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>314</v>
       </c>
@@ -4822,7 +4953,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>319</v>
       </c>
@@ -4848,7 +4979,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>323</v>
       </c>
@@ -4874,7 +5005,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>326</v>
       </c>
@@ -4900,7 +5031,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>329</v>
       </c>
@@ -4926,7 +5057,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>330</v>
       </c>
@@ -4952,7 +5083,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>332</v>
       </c>
@@ -4978,7 +5109,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>334</v>
       </c>
@@ -5004,7 +5135,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>85</v>
       </c>
@@ -5030,7 +5161,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>52</v>
       </c>
@@ -5056,7 +5187,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>336</v>
       </c>
@@ -5082,7 +5213,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>281</v>
       </c>
@@ -5108,7 +5239,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>340</v>
       </c>
@@ -5134,7 +5265,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>341</v>
       </c>
@@ -5160,7 +5291,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>342</v>
       </c>
@@ -5186,7 +5317,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>345</v>
       </c>
@@ -5206,7 +5337,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>145</v>
       </c>
@@ -5226,7 +5357,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>346</v>
       </c>
@@ -5246,7 +5377,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>389</v>
       </c>
@@ -5272,7 +5403,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>392</v>
       </c>
@@ -5298,7 +5429,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>152</v>
       </c>
@@ -5324,7 +5455,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>396</v>
       </c>
@@ -5350,7 +5481,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>400</v>
       </c>
@@ -5370,7 +5501,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>407</v>
       </c>
@@ -5396,7 +5527,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>411</v>
       </c>
@@ -5422,7 +5553,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>413</v>
       </c>
@@ -5445,7 +5576,7 @@
       </c>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>200</v>
       </c>
@@ -5468,7 +5599,7 @@
       </c>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>418</v>
       </c>
@@ -5491,7 +5622,7 @@
       </c>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>420</v>
       </c>
@@ -5518,7 +5649,7 @@
       </c>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>422</v>
       </c>
@@ -5545,7 +5676,7 @@
       </c>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>424</v>
       </c>
@@ -5572,7 +5703,7 @@
       </c>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>432</v>
       </c>
@@ -5598,7 +5729,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>436</v>
       </c>
@@ -5624,7 +5755,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>438</v>
       </c>
@@ -5650,7 +5781,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>442</v>
       </c>
@@ -5676,7 +5807,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>447</v>
       </c>
@@ -5702,7 +5833,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>450</v>
       </c>
@@ -5728,7 +5859,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>453</v>
       </c>
@@ -5754,7 +5885,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>456</v>
       </c>
@@ -5780,7 +5911,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>459</v>
       </c>
@@ -5806,7 +5937,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>462</v>
       </c>
@@ -5826,7 +5957,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>464</v>
       </c>
@@ -5844,6 +5975,386 @@
       </c>
       <c r="H152" t="s">
         <v>465</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>471</v>
+      </c>
+      <c r="B153" t="s">
+        <v>472</v>
+      </c>
+      <c r="C153" t="s">
+        <v>470</v>
+      </c>
+      <c r="D153" t="s">
+        <v>473</v>
+      </c>
+      <c r="E153" t="s">
+        <v>60</v>
+      </c>
+      <c r="F153">
+        <v>7</v>
+      </c>
+      <c r="G153" t="s">
+        <v>3</v>
+      </c>
+      <c r="H153" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>474</v>
+      </c>
+      <c r="B154" t="s">
+        <v>475</v>
+      </c>
+      <c r="C154" t="s">
+        <v>470</v>
+      </c>
+      <c r="D154" t="s">
+        <v>473</v>
+      </c>
+      <c r="E154" t="s">
+        <v>60</v>
+      </c>
+      <c r="H154" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>476</v>
+      </c>
+      <c r="B155" t="s">
+        <v>472</v>
+      </c>
+      <c r="C155" t="s">
+        <v>470</v>
+      </c>
+      <c r="D155" t="s">
+        <v>473</v>
+      </c>
+      <c r="E155" t="s">
+        <v>60</v>
+      </c>
+      <c r="F155">
+        <v>8</v>
+      </c>
+      <c r="G155" t="s">
+        <v>3</v>
+      </c>
+      <c r="H155" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>477</v>
+      </c>
+      <c r="B156" t="s">
+        <v>478</v>
+      </c>
+      <c r="C156" t="s">
+        <v>470</v>
+      </c>
+      <c r="D156" t="s">
+        <v>473</v>
+      </c>
+      <c r="E156" t="s">
+        <v>60</v>
+      </c>
+      <c r="H156" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>479</v>
+      </c>
+      <c r="B157" t="s">
+        <v>472</v>
+      </c>
+      <c r="C157" t="s">
+        <v>470</v>
+      </c>
+      <c r="D157" t="s">
+        <v>473</v>
+      </c>
+      <c r="E157" t="s">
+        <v>60</v>
+      </c>
+      <c r="H157" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>165</v>
+      </c>
+      <c r="B158" t="s">
+        <v>472</v>
+      </c>
+      <c r="C158" t="s">
+        <v>470</v>
+      </c>
+      <c r="D158" t="s">
+        <v>473</v>
+      </c>
+      <c r="E158" t="s">
+        <v>60</v>
+      </c>
+      <c r="F158">
+        <v>8</v>
+      </c>
+      <c r="G158" t="s">
+        <v>3</v>
+      </c>
+      <c r="H158" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>204</v>
+      </c>
+      <c r="B159" t="s">
+        <v>472</v>
+      </c>
+      <c r="C159" t="s">
+        <v>470</v>
+      </c>
+      <c r="D159" t="s">
+        <v>473</v>
+      </c>
+      <c r="E159" t="s">
+        <v>60</v>
+      </c>
+      <c r="F159">
+        <v>5</v>
+      </c>
+      <c r="G159" t="s">
+        <v>3</v>
+      </c>
+      <c r="H159" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>480</v>
+      </c>
+      <c r="B160" t="s">
+        <v>472</v>
+      </c>
+      <c r="C160" t="s">
+        <v>470</v>
+      </c>
+      <c r="D160" t="s">
+        <v>473</v>
+      </c>
+      <c r="E160" t="s">
+        <v>60</v>
+      </c>
+      <c r="H160" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>481</v>
+      </c>
+      <c r="B161" t="s">
+        <v>482</v>
+      </c>
+      <c r="C161" t="s">
+        <v>470</v>
+      </c>
+      <c r="D161" t="s">
+        <v>473</v>
+      </c>
+      <c r="E161" t="s">
+        <v>60</v>
+      </c>
+      <c r="F161">
+        <v>3</v>
+      </c>
+      <c r="G161" t="s">
+        <v>4</v>
+      </c>
+      <c r="H161" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>483</v>
+      </c>
+      <c r="B162" t="s">
+        <v>482</v>
+      </c>
+      <c r="C162" t="s">
+        <v>470</v>
+      </c>
+      <c r="D162" t="s">
+        <v>473</v>
+      </c>
+      <c r="E162" t="s">
+        <v>60</v>
+      </c>
+      <c r="F162">
+        <v>2</v>
+      </c>
+      <c r="G162" t="s">
+        <v>4</v>
+      </c>
+      <c r="H162" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>484</v>
+      </c>
+      <c r="B163" t="s">
+        <v>485</v>
+      </c>
+      <c r="C163" t="s">
+        <v>470</v>
+      </c>
+      <c r="D163" t="s">
+        <v>473</v>
+      </c>
+      <c r="E163" t="s">
+        <v>60</v>
+      </c>
+      <c r="F163">
+        <v>2</v>
+      </c>
+      <c r="G163" t="s">
+        <v>4</v>
+      </c>
+      <c r="H163" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>486</v>
+      </c>
+      <c r="B164" t="s">
+        <v>485</v>
+      </c>
+      <c r="C164" t="s">
+        <v>470</v>
+      </c>
+      <c r="D164" t="s">
+        <v>473</v>
+      </c>
+      <c r="E164" t="s">
+        <v>60</v>
+      </c>
+      <c r="F164">
+        <v>2</v>
+      </c>
+      <c r="G164" t="s">
+        <v>3</v>
+      </c>
+      <c r="H164" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>487</v>
+      </c>
+      <c r="B165" t="s">
+        <v>488</v>
+      </c>
+      <c r="C165" t="s">
+        <v>470</v>
+      </c>
+      <c r="D165" t="s">
+        <v>473</v>
+      </c>
+      <c r="E165" t="s">
+        <v>60</v>
+      </c>
+      <c r="F165">
+        <v>7</v>
+      </c>
+      <c r="G165" t="s">
+        <v>4</v>
+      </c>
+      <c r="H165" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>489</v>
+      </c>
+      <c r="B166" t="s">
+        <v>490</v>
+      </c>
+      <c r="C166" t="s">
+        <v>470</v>
+      </c>
+      <c r="D166" t="s">
+        <v>473</v>
+      </c>
+      <c r="E166" t="s">
+        <v>60</v>
+      </c>
+      <c r="H166" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>491</v>
+      </c>
+      <c r="B167" t="s">
+        <v>490</v>
+      </c>
+      <c r="C167" t="s">
+        <v>470</v>
+      </c>
+      <c r="D167" t="s">
+        <v>473</v>
+      </c>
+      <c r="E167" t="s">
+        <v>60</v>
+      </c>
+      <c r="H167" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>492</v>
+      </c>
+      <c r="B168" t="s">
+        <v>493</v>
+      </c>
+      <c r="C168" t="s">
+        <v>470</v>
+      </c>
+      <c r="D168" t="s">
+        <v>473</v>
+      </c>
+      <c r="E168" t="s">
+        <v>60</v>
+      </c>
+      <c r="F168">
+        <v>7</v>
+      </c>
+      <c r="G168" t="s">
+        <v>3</v>
+      </c>
+      <c r="H168" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/tookachi/roster.xlsx
+++ b/src/assets/tookachi/roster.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="512">
   <si>
     <t>dojo</t>
   </si>
@@ -1605,6 +1605,12 @@
   </si>
   <si>
     <t>Lauren Moran.jpg</t>
+  </si>
+  <si>
+    <t>Kaitlin</t>
+  </si>
+  <si>
+    <t>Kaitlin Moran.jpg</t>
   </si>
 </sst>
 </file>
@@ -2115,10 +2121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I168"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="H154" sqref="H154"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="K156" sqref="K156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6005,7 +6011,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>474</v>
+        <v>510</v>
       </c>
       <c r="B154" t="s">
         <v>475</v>
@@ -6020,15 +6026,15 @@
         <v>60</v>
       </c>
       <c r="H154" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B155" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C155" t="s">
         <v>470</v>
@@ -6039,22 +6045,16 @@
       <c r="E155" t="s">
         <v>60</v>
       </c>
-      <c r="F155">
-        <v>8</v>
-      </c>
-      <c r="G155" t="s">
-        <v>3</v>
-      </c>
       <c r="H155" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B156" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C156" t="s">
         <v>470</v>
@@ -6065,16 +6065,22 @@
       <c r="E156" t="s">
         <v>60</v>
       </c>
+      <c r="F156">
+        <v>8</v>
+      </c>
+      <c r="G156" t="s">
+        <v>3</v>
+      </c>
       <c r="H156" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B157" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C157" t="s">
         <v>470</v>
@@ -6086,12 +6092,12 @@
         <v>60</v>
       </c>
       <c r="H157" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>165</v>
+        <v>479</v>
       </c>
       <c r="B158" t="s">
         <v>472</v>
@@ -6105,19 +6111,13 @@
       <c r="E158" t="s">
         <v>60</v>
       </c>
-      <c r="F158">
-        <v>8</v>
-      </c>
-      <c r="G158" t="s">
-        <v>3</v>
-      </c>
       <c r="H158" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="B159" t="s">
         <v>472</v>
@@ -6132,18 +6132,18 @@
         <v>60</v>
       </c>
       <c r="F159">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G159" t="s">
         <v>3</v>
       </c>
       <c r="H159" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>480</v>
+        <v>204</v>
       </c>
       <c r="B160" t="s">
         <v>472</v>
@@ -6157,16 +6157,22 @@
       <c r="E160" t="s">
         <v>60</v>
       </c>
+      <c r="F160">
+        <v>5</v>
+      </c>
+      <c r="G160" t="s">
+        <v>3</v>
+      </c>
       <c r="H160" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B161" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C161" t="s">
         <v>470</v>
@@ -6177,19 +6183,13 @@
       <c r="E161" t="s">
         <v>60</v>
       </c>
-      <c r="F161">
-        <v>3</v>
-      </c>
-      <c r="G161" t="s">
-        <v>4</v>
-      </c>
       <c r="H161" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B162" t="s">
         <v>482</v>
@@ -6204,21 +6204,21 @@
         <v>60</v>
       </c>
       <c r="F162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G162" t="s">
         <v>4</v>
       </c>
       <c r="H162" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B163" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C163" t="s">
         <v>470</v>
@@ -6236,12 +6236,12 @@
         <v>4</v>
       </c>
       <c r="H163" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B164" t="s">
         <v>485</v>
@@ -6259,18 +6259,18 @@
         <v>2</v>
       </c>
       <c r="G164" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H164" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B165" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C165" t="s">
         <v>470</v>
@@ -6282,21 +6282,21 @@
         <v>60</v>
       </c>
       <c r="F165">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G165" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H165" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B166" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C166" t="s">
         <v>470</v>
@@ -6307,13 +6307,19 @@
       <c r="E166" t="s">
         <v>60</v>
       </c>
+      <c r="F166">
+        <v>7</v>
+      </c>
+      <c r="G166" t="s">
+        <v>4</v>
+      </c>
       <c r="H166" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B167" t="s">
         <v>490</v>
@@ -6328,15 +6334,15 @@
         <v>60</v>
       </c>
       <c r="H167" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B168" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C168" t="s">
         <v>470</v>
@@ -6347,13 +6353,33 @@
       <c r="E168" t="s">
         <v>60</v>
       </c>
-      <c r="F168">
+      <c r="H168" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>492</v>
+      </c>
+      <c r="B169" t="s">
+        <v>493</v>
+      </c>
+      <c r="C169" t="s">
+        <v>470</v>
+      </c>
+      <c r="D169" t="s">
+        <v>473</v>
+      </c>
+      <c r="E169" t="s">
+        <v>60</v>
+      </c>
+      <c r="F169">
         <v>7</v>
       </c>
-      <c r="G168" t="s">
-        <v>3</v>
-      </c>
-      <c r="H168" t="s">
+      <c r="G169" t="s">
+        <v>3</v>
+      </c>
+      <c r="H169" t="s">
         <v>505</v>
       </c>
     </row>

--- a/src/assets/tookachi/roster.xlsx
+++ b/src/assets/tookachi/roster.xlsx
@@ -15,7 +15,7 @@
     <sheet name="roster" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">roster!$A$1:$H$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">roster!$A$1:$H$47</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="542">
   <si>
     <t>dojo</t>
   </si>
@@ -206,9 +206,6 @@
     <t>austinhendry.PNG</t>
   </si>
   <si>
-    <t>Hombu</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>Kass</t>
   </si>
   <si>
-    <t>Alaska Shido-kan</t>
-  </si>
-  <si>
     <t>Kenai, Alaska</t>
   </si>
   <si>
@@ -281,9 +275,6 @@
     <t>Curtis</t>
   </si>
   <si>
-    <t>Virginia</t>
-  </si>
-  <si>
     <t>Robert</t>
   </si>
   <si>
@@ -975,9 +966,6 @@
   </si>
   <si>
     <t>McCloud</t>
-  </si>
-  <si>
-    <t>Holt</t>
   </si>
   <si>
     <t>Holt, MI</t>
@@ -1487,9 +1475,6 @@
     <t>Moralez</t>
   </si>
   <si>
-    <t>Maywood</t>
-  </si>
-  <si>
     <t>Mason</t>
   </si>
   <si>
@@ -1611,6 +1596,111 @@
   </si>
   <si>
     <t>Kaitlin Moran.jpg</t>
+  </si>
+  <si>
+    <t>jr dan</t>
+  </si>
+  <si>
+    <t>Clawson Dojo</t>
+  </si>
+  <si>
+    <t>Chartier</t>
+  </si>
+  <si>
+    <t>Boettcher</t>
+  </si>
+  <si>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>Garagiola</t>
+  </si>
+  <si>
+    <t>Corryne</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Monaghan</t>
+  </si>
+  <si>
+    <t>Laboda</t>
+  </si>
+  <si>
+    <t>Ream</t>
+  </si>
+  <si>
+    <t>Forrest</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Michiko</t>
+  </si>
+  <si>
+    <t>Paola</t>
+  </si>
+  <si>
+    <t>Raina</t>
+  </si>
+  <si>
+    <t>Detroit, Michigan</t>
+  </si>
+  <si>
+    <t>Maywood Shidokan</t>
+  </si>
+  <si>
+    <t>Holt Dojo</t>
+  </si>
+  <si>
+    <t>Alaska Shidokan</t>
+  </si>
+  <si>
+    <t>Virginia Shidokan</t>
+  </si>
+  <si>
+    <t>Hombu Dojo</t>
+  </si>
+  <si>
+    <t>Owosso, Michigan</t>
+  </si>
+  <si>
+    <t>Boettcher,Matt.JPG</t>
+  </si>
+  <si>
+    <t>Monaghan,John.JPG</t>
+  </si>
+  <si>
+    <t>Chartier,Rob.JPG</t>
+  </si>
+  <si>
+    <t>Chartier,Laura.JPG</t>
+  </si>
+  <si>
+    <t>Young,Raina.JPG</t>
+  </si>
+  <si>
+    <t>Smith,Paola.JPG</t>
+  </si>
+  <si>
+    <t>Laboda,Michiko.JPG</t>
+  </si>
+  <si>
+    <t>Ream,Forrest.JPG</t>
+  </si>
+  <si>
+    <t>Stomack,Kayla.JPG</t>
+  </si>
+  <si>
+    <t>young,mike.jpg</t>
+  </si>
+  <si>
+    <t>Smith,Mike.jpg</t>
+  </si>
+  <si>
+    <t>Laboda,Chris.JPG</t>
   </si>
 </sst>
 </file>
@@ -2121,23 +2211,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I169"/>
+  <dimension ref="A1:I182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="K156" sqref="K156"/>
+    <sheetView tabSelected="1" topLeftCell="C163" workbookViewId="0">
+      <selection activeCell="H180" sqref="H180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>55</v>
       </c>
@@ -2148,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>1</v>
@@ -2163,7 +2253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>53</v>
       </c>
@@ -2171,13 +2261,13 @@
         <v>8</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="11">
         <v>10</v>
@@ -2186,10 +2276,10 @@
         <v>3</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>52</v>
       </c>
@@ -2197,13 +2287,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="11">
         <v>3</v>
@@ -2212,10 +2302,10 @@
         <v>3</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>51</v>
       </c>
@@ -2223,21 +2313,21 @@
         <v>9</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="12" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>38</v>
       </c>
@@ -2245,13 +2335,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="11">
         <v>1</v>
@@ -2260,10 +2350,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>50</v>
       </c>
@@ -2271,25 +2361,25 @@
         <v>11</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>49</v>
       </c>
@@ -2297,13 +2387,13 @@
         <v>12</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="11">
         <v>4</v>
@@ -2312,10 +2402,10 @@
         <v>3</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>48</v>
       </c>
@@ -2323,13 +2413,13 @@
         <v>12</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="11">
         <v>4</v>
@@ -2338,10 +2428,10 @@
         <v>3</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>47</v>
       </c>
@@ -2349,13 +2439,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="11">
         <v>5</v>
@@ -2364,10 +2454,10 @@
         <v>4</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>36</v>
       </c>
@@ -2375,13 +2465,13 @@
         <v>35</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="11">
         <v>4</v>
@@ -2390,10 +2480,10 @@
         <v>3</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>37</v>
       </c>
@@ -2401,13 +2491,13 @@
         <v>34</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="11">
         <v>5</v>
@@ -2416,24 +2506,24 @@
         <v>3</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="18">
         <v>5</v>
@@ -2442,24 +2532,24 @@
         <v>3</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="11">
         <v>5</v>
@@ -2468,10 +2558,10 @@
         <v>3</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>38</v>
       </c>
@@ -2479,13 +2569,13 @@
         <v>32</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="11">
         <v>6</v>
@@ -2494,10 +2584,10 @@
         <v>3</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>39</v>
       </c>
@@ -2505,13 +2595,13 @@
         <v>31</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="11">
         <v>5</v>
@@ -2520,10 +2610,10 @@
         <v>3</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>40</v>
       </c>
@@ -2531,13 +2621,13 @@
         <v>30</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" s="11">
         <v>7</v>
@@ -2546,10 +2636,10 @@
         <v>3</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>41</v>
       </c>
@@ -2557,13 +2647,13 @@
         <v>29</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="11">
         <v>5</v>
@@ -2572,10 +2662,10 @@
         <v>3</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>42</v>
       </c>
@@ -2583,13 +2673,13 @@
         <v>28</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" s="11">
         <v>6</v>
@@ -2598,10 +2688,10 @@
         <v>3</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>43</v>
       </c>
@@ -2609,13 +2699,13 @@
         <v>27</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F19" s="11">
         <v>5</v>
@@ -2624,10 +2714,10 @@
         <v>3</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>44</v>
       </c>
@@ -2635,13 +2725,13 @@
         <v>26</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>63</v>
+        <v>529</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F20" s="11">
         <v>4</v>
@@ -2650,10 +2740,10 @@
         <v>3</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>45</v>
       </c>
@@ -2661,13 +2751,13 @@
         <v>26</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>63</v>
+        <v>529</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="11">
         <v>1</v>
@@ -2676,10 +2766,10 @@
         <v>3</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>46</v>
       </c>
@@ -2687,13 +2777,13 @@
         <v>25</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F22" s="11">
         <v>4</v>
@@ -2702,10 +2792,10 @@
         <v>3</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>14</v>
       </c>
@@ -2713,13 +2803,13 @@
         <v>15</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F23" s="11">
         <v>1</v>
@@ -2728,10 +2818,10 @@
         <v>4</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>16</v>
       </c>
@@ -2739,13 +2829,13 @@
         <v>17</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" s="11">
         <v>6</v>
@@ -2754,180 +2844,182 @@
         <v>3</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="12" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F26" s="11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="11">
-        <v>5</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>59</v>
+        <v>526</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="F29" s="11">
+        <v>8</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="E30" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="11">
-        <v>8</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B31" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="E31" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+        <v>59</v>
+      </c>
+      <c r="F31" s="11">
+        <v>2</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="H31" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>73</v>
       </c>
@@ -2935,39 +3027,39 @@
         <v>74</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>69</v>
+        <v>526</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F32" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>69</v>
+        <v>526</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="11">
         <v>1</v>
@@ -2976,36 +3068,36 @@
         <v>3</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>69</v>
+        <v>527</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F34" s="11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>82</v>
       </c>
@@ -3013,265 +3105,265 @@
         <v>83</v>
       </c>
       <c r="C35" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="11">
+        <v>6</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="11">
-        <v>8</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="B36" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="11">
+        <v>2</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="11">
-        <v>6</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>84</v>
+        <v>527</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>107</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F37" s="11">
+        <v>3</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="11">
         <v>2</v>
       </c>
-      <c r="G37" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="G38" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" s="11">
-        <v>3</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="C39" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="11">
+        <v>1</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" s="11">
-        <v>2</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>91</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>84</v>
+        <v>527</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F40" s="11">
         <v>1</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H40" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="11">
+        <v>1</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" s="11" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="11" t="s">
+      <c r="B43" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" s="11">
+      <c r="E44" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="11">
         <v>1</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G44" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="11" t="s">
+      <c r="H44" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" s="11">
-        <v>1</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="11" t="s">
+      <c r="B45" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="C45" s="11" t="s">
-        <v>84</v>
+        <v>527</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45" s="11">
         <v>1</v>
@@ -3280,24 +3372,24 @@
         <v>4</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>84</v>
+        <v>527</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F46" s="11">
         <v>1</v>
@@ -3306,79 +3398,79 @@
         <v>4</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="C47" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>106</v>
-      </c>
       <c r="E47" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F47" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F48" s="11">
-        <v>3</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="2">
+        <v>6</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F49" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>3</v>
@@ -3387,7 +3479,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
         <v>130</v>
       </c>
@@ -3395,13 +3487,13 @@
         <v>131</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2">
         <v>3</v>
@@ -3413,7 +3505,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
         <v>133</v>
       </c>
@@ -3421,13 +3513,13 @@
         <v>134</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2">
         <v>3</v>
@@ -3439,7 +3531,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
         <v>136</v>
       </c>
@@ -3447,16 +3539,16 @@
         <v>137</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>3</v>
@@ -3465,7 +3557,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
         <v>139</v>
       </c>
@@ -3473,25 +3565,25 @@
         <v>140</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H53" s="14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
         <v>142</v>
       </c>
@@ -3499,13 +3591,13 @@
         <v>143</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2">
         <v>1</v>
@@ -3517,7 +3609,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
         <v>145</v>
       </c>
@@ -3525,113 +3617,113 @@
         <v>146</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H55" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B56" s="1" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F56" s="2">
-        <v>4</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H56" s="14" t="s">
+      <c r="B57" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D57" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" s="11">
+        <v>8</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="F58" s="11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="F59" s="11">
         <v>6</v>
@@ -3640,10 +3732,10 @@
         <v>3</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>162</v>
       </c>
@@ -3651,13 +3743,13 @@
         <v>163</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>164</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F60" s="11">
         <v>6</v>
@@ -3666,50 +3758,50 @@
         <v>3</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D61" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F61" s="11">
+        <v>5</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H61" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E61" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F61" s="11">
-        <v>6</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H61" s="15" t="s">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="B62" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="C62" s="11" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F62" s="11">
         <v>5</v>
@@ -3718,27 +3810,27 @@
         <v>3</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>172</v>
       </c>
       <c r="C63" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D63" s="11" t="s">
-        <v>174</v>
-      </c>
       <c r="E63" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F63" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>3</v>
@@ -3747,21 +3839,21 @@
         <v>264</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>175</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>176</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F64" s="11">
         <v>4</v>
@@ -3770,24 +3862,24 @@
         <v>3</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>178</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>179</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="F65" s="11">
         <v>4</v>
@@ -3799,21 +3891,21 @@
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>181</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>182</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>182</v>
+        <v>59</v>
       </c>
       <c r="F66" s="11">
         <v>4</v>
@@ -3822,24 +3914,24 @@
         <v>3</v>
       </c>
       <c r="H66" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
-        <v>99</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>184</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>185</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F67" s="11">
         <v>4</v>
@@ -3848,36 +3940,36 @@
         <v>3</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F68" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>190</v>
       </c>
@@ -3885,25 +3977,25 @@
         <v>191</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D69" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69" s="11">
+        <v>3</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H69" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="E69" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F69" s="11">
-        <v>3</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>193</v>
       </c>
@@ -3911,13 +4003,13 @@
         <v>194</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F70" s="11">
         <v>3</v>
@@ -3926,24 +4018,24 @@
         <v>3</v>
       </c>
       <c r="H70" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" s="11" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>198</v>
-      </c>
       <c r="D71" s="11" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F71" s="11">
         <v>3</v>
@@ -3952,50 +4044,50 @@
         <v>3</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F72" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H72" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="B73" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="C73" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C73" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>192</v>
-      </c>
       <c r="E73" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F73" s="11">
         <v>2</v>
@@ -4004,10 +4096,10 @@
         <v>3</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>206</v>
       </c>
@@ -4015,13 +4107,13 @@
         <v>207</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F74" s="11">
         <v>2</v>
@@ -4030,10 +4122,10 @@
         <v>3</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>209</v>
       </c>
@@ -4041,13 +4133,13 @@
         <v>210</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F75" s="11">
         <v>2</v>
@@ -4059,7 +4151,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>212</v>
       </c>
@@ -4067,13 +4159,13 @@
         <v>213</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F76" s="11">
         <v>2</v>
@@ -4082,24 +4174,24 @@
         <v>3</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F77" s="11">
         <v>2</v>
@@ -4108,50 +4200,50 @@
         <v>3</v>
       </c>
       <c r="H77" s="15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+      <c r="B78" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="C78" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D78" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C78" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>202</v>
-      </c>
       <c r="E78" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F78" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>222</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>223</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F79" s="11">
         <v>1</v>
@@ -4163,21 +4255,21 @@
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F80" s="11">
         <v>1</v>
@@ -4186,24 +4278,24 @@
         <v>3</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F81" s="11">
         <v>1</v>
@@ -4212,50 +4304,50 @@
         <v>3</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F82" s="11">
         <v>1</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="F83" s="11">
         <v>1</v>
@@ -4264,24 +4356,24 @@
         <v>4</v>
       </c>
       <c r="H83" s="15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
+      <c r="B84" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="B84" s="11" t="s">
-        <v>235</v>
-      </c>
       <c r="C84" s="11" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="F84" s="11">
         <v>1</v>
@@ -4290,215 +4382,215 @@
         <v>4</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>174</v>
+        <v>235</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F85" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
-        <v>82</v>
+        <v>237</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>238</v>
+        <v>157</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F86" s="11">
-        <v>6</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>4</v>
+        <v>158</v>
+      </c>
+      <c r="F86" s="16">
+        <v>1</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>3</v>
       </c>
       <c r="H86" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
+      <c r="B87" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B88" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D88" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C87" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="F87" s="16">
-        <v>1</v>
-      </c>
-      <c r="G87" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H87" s="15" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>238</v>
-      </c>
       <c r="E88" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
       <c r="H88" s="15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B89" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>237</v>
-      </c>
       <c r="C89" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
       <c r="H89" s="15" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B90" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="B90" s="11" t="s">
-        <v>246</v>
-      </c>
       <c r="C90" s="11" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
       <c r="H90" s="15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>247</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
       <c r="H91" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>174</v>
+        <v>268</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="F92" s="11">
+        <v>3</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D93" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="B93" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>271</v>
-      </c>
       <c r="E93" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F93" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>3</v>
@@ -4507,76 +4599,76 @@
         <v>272</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F94" s="11">
         <v>1</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F95" s="11">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="F95" s="16">
+        <v>7</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B96" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="B96" s="11" t="s">
-        <v>274</v>
-      </c>
       <c r="C96" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F96" s="16">
-        <v>7</v>
+        <v>59</v>
+      </c>
+      <c r="F96" s="11">
+        <v>1</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>4</v>
@@ -4585,381 +4677,381 @@
         <v>277</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>279</v>
+        <v>149</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="E97" s="11" t="s">
         <v>60</v>
       </c>
       <c r="F97" s="11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>282</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C98" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F98" s="11">
+        <v>6</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="B99" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="E98" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F98" s="11">
-        <v>7</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H98" s="12" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
+      <c r="C99" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F99" s="11">
+        <v>5</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B99" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F99" s="11">
+      <c r="B100" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F100" s="11">
+        <v>4</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F101" s="11">
         <v>6</v>
       </c>
-      <c r="G99" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H99" s="12" t="s">
+      <c r="G101" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="12" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F100" s="11">
-        <v>5</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="10" t="s">
         <v>288</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F101" s="11">
-        <v>4</v>
-      </c>
-      <c r="G101" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
-        <v>290</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>289</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F102" s="11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G102" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F104" s="11">
+        <v>2</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F105" s="11">
         <v>4</v>
       </c>
-      <c r="H102" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F103" s="11">
-        <v>2</v>
-      </c>
-      <c r="G103" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H103" s="12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="12" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="E105" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F105" s="11">
-        <v>2</v>
-      </c>
       <c r="G105" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H105" s="12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="10" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
+      <c r="B106" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="C106" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F106" s="11">
+        <v>1</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="C106" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E106" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F106" s="11">
-        <v>4</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H106" s="12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
+      <c r="B107" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="12"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="10" t="s">
         <v>299</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E107" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F107" s="11">
-        <v>1</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H107" s="12" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
-        <v>301</v>
       </c>
       <c r="B108" s="11" t="s">
         <v>300</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
-        <v>302</v>
+        <v>69</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>303</v>
+        <v>24</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="12"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E110" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F110" s="11">
+        <v>60</v>
+      </c>
+      <c r="F109" s="11">
         <v>4</v>
       </c>
-      <c r="G110" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H110" s="12" t="s">
+      <c r="G109" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
+      <c r="B110" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F110" s="5">
+        <v>8</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H110" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B111" s="4" t="s">
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>315</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="B111" t="s">
         <v>316</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="C111" t="s">
+        <v>525</v>
+      </c>
+      <c r="D111" t="s">
         <v>317</v>
       </c>
-      <c r="E111" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F111" s="5">
-        <v>8</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H111" s="6" t="s">
+      <c r="E111" t="s">
+        <v>59</v>
+      </c>
+      <c r="F111">
+        <v>4</v>
+      </c>
+      <c r="G111" t="s">
+        <v>3</v>
+      </c>
+      <c r="H111" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>319</v>
       </c>
@@ -4967,91 +5059,91 @@
         <v>320</v>
       </c>
       <c r="C112" t="s">
-        <v>316</v>
+        <v>525</v>
       </c>
       <c r="D112" t="s">
         <v>321</v>
       </c>
       <c r="E112" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G112" t="s">
         <v>3</v>
       </c>
       <c r="H112" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="B113" t="s">
         <v>323</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
+        <v>525</v>
+      </c>
+      <c r="D113" t="s">
         <v>324</v>
       </c>
-      <c r="C113" t="s">
-        <v>316</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
+        <v>59</v>
+      </c>
+      <c r="F113">
+        <v>3</v>
+      </c>
+      <c r="G113" t="s">
+        <v>3</v>
+      </c>
+      <c r="H113" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>325</v>
       </c>
-      <c r="E113" t="s">
-        <v>60</v>
-      </c>
-      <c r="F113">
-        <v>3</v>
-      </c>
-      <c r="G113" t="s">
-        <v>3</v>
-      </c>
-      <c r="H113" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="B114" t="s">
+        <v>312</v>
+      </c>
+      <c r="C114" t="s">
+        <v>525</v>
+      </c>
+      <c r="D114" t="s">
+        <v>313</v>
+      </c>
+      <c r="E114" t="s">
+        <v>59</v>
+      </c>
+      <c r="F114">
+        <v>3</v>
+      </c>
+      <c r="G114" t="s">
+        <v>3</v>
+      </c>
+      <c r="H114" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>326</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>327</v>
       </c>
-      <c r="C114" t="s">
-        <v>316</v>
-      </c>
-      <c r="D114" t="s">
-        <v>328</v>
-      </c>
-      <c r="E114" t="s">
-        <v>60</v>
-      </c>
-      <c r="F114">
-        <v>3</v>
-      </c>
-      <c r="G114" t="s">
-        <v>3</v>
-      </c>
-      <c r="H114" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>329</v>
-      </c>
-      <c r="B115" t="s">
-        <v>315</v>
-      </c>
       <c r="C115" t="s">
-        <v>316</v>
+        <v>525</v>
       </c>
       <c r="D115" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E115" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F115">
         <v>3</v>
@@ -5063,73 +5155,73 @@
         <v>347</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>328</v>
+      </c>
+      <c r="B116" t="s">
+        <v>329</v>
+      </c>
+      <c r="C116" t="s">
+        <v>525</v>
+      </c>
+      <c r="D116" t="s">
+        <v>313</v>
+      </c>
+      <c r="E116" t="s">
+        <v>59</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116" t="s">
+        <v>3</v>
+      </c>
+      <c r="H116" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>330</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>331</v>
       </c>
-      <c r="C116" t="s">
-        <v>316</v>
-      </c>
-      <c r="D116" t="s">
-        <v>317</v>
-      </c>
-      <c r="E116" t="s">
-        <v>60</v>
-      </c>
-      <c r="F116">
-        <v>3</v>
-      </c>
-      <c r="G116" t="s">
-        <v>3</v>
-      </c>
-      <c r="H116" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>332</v>
-      </c>
-      <c r="B117" t="s">
-        <v>333</v>
-      </c>
       <c r="C117" t="s">
-        <v>316</v>
+        <v>525</v>
       </c>
       <c r="D117" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E117" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G117" t="s">
         <v>3</v>
       </c>
       <c r="H117" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="B118" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C118" t="s">
-        <v>316</v>
+        <v>525</v>
       </c>
       <c r="D118" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -5138,330 +5230,330 @@
         <v>3</v>
       </c>
       <c r="H118" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B119" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="C119" t="s">
-        <v>316</v>
+        <v>525</v>
       </c>
       <c r="D119" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E119" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F119">
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H119" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>52</v>
+        <v>332</v>
       </c>
       <c r="B120" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="C120" t="s">
-        <v>316</v>
+        <v>525</v>
       </c>
       <c r="D120" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E120" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F120">
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H120" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>336</v>
+        <v>278</v>
       </c>
       <c r="B121" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C121" t="s">
-        <v>316</v>
+        <v>525</v>
       </c>
       <c r="D121" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="E121" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F121">
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H121" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="B122" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C122" t="s">
-        <v>316</v>
+        <v>525</v>
       </c>
       <c r="D122" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="E122" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G122" t="s">
         <v>4</v>
       </c>
       <c r="H122" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B123" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="C123" t="s">
-        <v>316</v>
+        <v>525</v>
       </c>
       <c r="D123" t="s">
         <v>317</v>
       </c>
       <c r="E123" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G123" t="s">
         <v>4</v>
       </c>
       <c r="H123" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B124" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="C124" t="s">
-        <v>316</v>
+        <v>525</v>
       </c>
       <c r="D124" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="E124" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F124">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G124" t="s">
         <v>4</v>
       </c>
       <c r="H124" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
+        <v>341</v>
+      </c>
+      <c r="B125" t="s">
+        <v>331</v>
+      </c>
+      <c r="C125" t="s">
+        <v>525</v>
+      </c>
+      <c r="D125" t="s">
+        <v>313</v>
+      </c>
+      <c r="E125" t="s">
+        <v>59</v>
+      </c>
+      <c r="H125" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>142</v>
+      </c>
+      <c r="B126" t="s">
+        <v>320</v>
+      </c>
+      <c r="C126" t="s">
+        <v>525</v>
+      </c>
+      <c r="D126" t="s">
+        <v>321</v>
+      </c>
+      <c r="E126" t="s">
+        <v>59</v>
+      </c>
+      <c r="H126" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>342</v>
       </c>
-      <c r="B125" t="s">
-        <v>343</v>
-      </c>
-      <c r="C125" t="s">
-        <v>316</v>
-      </c>
-      <c r="D125" t="s">
-        <v>344</v>
-      </c>
-      <c r="E125" t="s">
-        <v>60</v>
-      </c>
-      <c r="F125">
+      <c r="B127" t="s">
+        <v>339</v>
+      </c>
+      <c r="C127" t="s">
+        <v>525</v>
+      </c>
+      <c r="D127" t="s">
+        <v>340</v>
+      </c>
+      <c r="E127" t="s">
+        <v>59</v>
+      </c>
+      <c r="H127" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>385</v>
+      </c>
+      <c r="B128" t="s">
+        <v>386</v>
+      </c>
+      <c r="C128" t="s">
+        <v>390</v>
+      </c>
+      <c r="D128" t="s">
+        <v>387</v>
+      </c>
+      <c r="E128" t="s">
+        <v>59</v>
+      </c>
+      <c r="F128">
+        <v>6</v>
+      </c>
+      <c r="G128" t="s">
+        <v>3</v>
+      </c>
+      <c r="H128" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>388</v>
+      </c>
+      <c r="B129" t="s">
+        <v>389</v>
+      </c>
+      <c r="C129" t="s">
+        <v>390</v>
+      </c>
+      <c r="D129" t="s">
+        <v>387</v>
+      </c>
+      <c r="E129" t="s">
+        <v>59</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129" t="s">
+        <v>3</v>
+      </c>
+      <c r="H129" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>149</v>
+      </c>
+      <c r="B130" t="s">
+        <v>391</v>
+      </c>
+      <c r="C130" t="s">
+        <v>390</v>
+      </c>
+      <c r="D130" t="s">
+        <v>387</v>
+      </c>
+      <c r="E130" t="s">
+        <v>59</v>
+      </c>
+      <c r="F130">
+        <v>5</v>
+      </c>
+      <c r="G130" t="s">
         <v>4</v>
       </c>
-      <c r="G125" t="s">
-        <v>4</v>
-      </c>
-      <c r="H125" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>345</v>
-      </c>
-      <c r="B126" t="s">
-        <v>335</v>
-      </c>
-      <c r="C126" t="s">
-        <v>316</v>
-      </c>
-      <c r="D126" t="s">
-        <v>317</v>
-      </c>
-      <c r="E126" t="s">
-        <v>60</v>
-      </c>
-      <c r="H126" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>145</v>
-      </c>
-      <c r="B127" t="s">
-        <v>324</v>
-      </c>
-      <c r="C127" t="s">
-        <v>316</v>
-      </c>
-      <c r="D127" t="s">
-        <v>325</v>
-      </c>
-      <c r="E127" t="s">
-        <v>60</v>
-      </c>
-      <c r="H127" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>346</v>
-      </c>
-      <c r="B128" t="s">
-        <v>343</v>
-      </c>
-      <c r="C128" t="s">
-        <v>316</v>
-      </c>
-      <c r="D128" t="s">
-        <v>344</v>
-      </c>
-      <c r="E128" t="s">
-        <v>60</v>
-      </c>
-      <c r="H128" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>389</v>
-      </c>
-      <c r="B129" t="s">
-        <v>390</v>
-      </c>
-      <c r="C129" t="s">
-        <v>59</v>
-      </c>
-      <c r="D129" t="s">
-        <v>391</v>
-      </c>
-      <c r="E129" t="s">
-        <v>60</v>
-      </c>
-      <c r="F129">
-        <v>6</v>
-      </c>
-      <c r="G129" t="s">
-        <v>3</v>
-      </c>
-      <c r="H129" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="H130" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>392</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>393</v>
-      </c>
-      <c r="C130" t="s">
-        <v>394</v>
-      </c>
-      <c r="D130" t="s">
-        <v>391</v>
-      </c>
-      <c r="E130" t="s">
-        <v>60</v>
-      </c>
-      <c r="F130">
-        <v>1</v>
-      </c>
-      <c r="G130" t="s">
-        <v>3</v>
-      </c>
-      <c r="H130" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>152</v>
-      </c>
-      <c r="B131" t="s">
-        <v>395</v>
       </c>
       <c r="C131" t="s">
         <v>394</v>
       </c>
       <c r="D131" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="E131" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F131">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G131" t="s">
         <v>4</v>
       </c>
       <c r="H131" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>396</v>
       </c>
@@ -5469,247 +5561,247 @@
         <v>397</v>
       </c>
       <c r="C132" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D132" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E132" t="s">
-        <v>60</v>
-      </c>
-      <c r="F132">
-        <v>3</v>
-      </c>
-      <c r="G132" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="H132" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>403</v>
+      </c>
+      <c r="B133" t="s">
+        <v>404</v>
+      </c>
+      <c r="C133" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>400</v>
-      </c>
-      <c r="B133" t="s">
-        <v>401</v>
-      </c>
-      <c r="C133" t="s">
-        <v>394</v>
-      </c>
       <c r="D133" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="E133" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="F133">
+        <v>5</v>
+      </c>
+      <c r="G133" t="s">
+        <v>3</v>
       </c>
       <c r="H133" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>407</v>
       </c>
       <c r="B134" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C134" t="s">
+        <v>405</v>
+      </c>
+      <c r="D134" t="s">
+        <v>406</v>
+      </c>
+      <c r="E134" t="s">
+        <v>59</v>
+      </c>
+      <c r="F134">
+        <v>3</v>
+      </c>
+      <c r="G134" t="s">
+        <v>3</v>
+      </c>
+      <c r="H134" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D134" t="s">
+      <c r="B135" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E134" t="s">
+      <c r="C135" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F134">
-        <v>5</v>
-      </c>
-      <c r="G134" t="s">
-        <v>3</v>
-      </c>
-      <c r="H134" t="s">
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>411</v>
-      </c>
-      <c r="B135" t="s">
-        <v>408</v>
-      </c>
-      <c r="C135" t="s">
-        <v>409</v>
-      </c>
-      <c r="D135" t="s">
-        <v>410</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="E136" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="F135">
-        <v>3</v>
-      </c>
-      <c r="G135" t="s">
-        <v>3</v>
-      </c>
-      <c r="H135" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>200</v>
+        <v>414</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F138" s="2">
+        <v>9</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="C139" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F139" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F140" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F141" s="2">
-        <v>7</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H141" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>428</v>
+      </c>
+      <c r="B141" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141" t="s">
+        <v>429</v>
+      </c>
+      <c r="D141" t="s">
+        <v>430</v>
+      </c>
+      <c r="E141" t="s">
+        <v>59</v>
+      </c>
+      <c r="F141">
+        <v>8</v>
+      </c>
+      <c r="G141" t="s">
+        <v>3</v>
+      </c>
+      <c r="H141" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>432</v>
       </c>
@@ -5717,13 +5809,13 @@
         <v>27</v>
       </c>
       <c r="C142" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D142" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E142" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F142">
         <v>8</v>
@@ -5732,27 +5824,27 @@
         <v>3</v>
       </c>
       <c r="H142" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>434</v>
+      </c>
+      <c r="B143" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="C143" t="s">
+        <v>429</v>
+      </c>
+      <c r="D143" t="s">
         <v>436</v>
       </c>
-      <c r="B143" t="s">
-        <v>27</v>
-      </c>
-      <c r="C143" t="s">
-        <v>433</v>
-      </c>
-      <c r="D143" t="s">
-        <v>434</v>
-      </c>
       <c r="E143" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F143">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G143" t="s">
         <v>3</v>
@@ -5761,7 +5853,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>438</v>
       </c>
@@ -5769,65 +5861,65 @@
         <v>439</v>
       </c>
       <c r="C144" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="D144" t="s">
+        <v>441</v>
+      </c>
+      <c r="E144" t="s">
+        <v>59</v>
+      </c>
+      <c r="F144">
+        <v>6</v>
+      </c>
+      <c r="G144" t="s">
+        <v>3</v>
+      </c>
+      <c r="H144" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>443</v>
+      </c>
+      <c r="B145" t="s">
+        <v>444</v>
+      </c>
+      <c r="C145" t="s">
         <v>440</v>
       </c>
-      <c r="E144" t="s">
-        <v>60</v>
-      </c>
-      <c r="F144">
-        <v>5</v>
-      </c>
-      <c r="G144" t="s">
-        <v>3</v>
-      </c>
-      <c r="H144" t="s">
+      <c r="D145" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>442</v>
-      </c>
-      <c r="B145" t="s">
-        <v>443</v>
-      </c>
-      <c r="C145" t="s">
-        <v>444</v>
-      </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
+        <v>59</v>
+      </c>
+      <c r="F145">
+        <v>4</v>
+      </c>
+      <c r="G145" t="s">
+        <v>3</v>
+      </c>
+      <c r="H145" t="s">
         <v>445</v>
       </c>
-      <c r="E145" t="s">
-        <v>60</v>
-      </c>
-      <c r="F145">
-        <v>6</v>
-      </c>
-      <c r="G145" t="s">
-        <v>3</v>
-      </c>
-      <c r="H145" t="s">
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="B146" t="s">
         <v>447</v>
       </c>
-      <c r="B146" t="s">
-        <v>448</v>
-      </c>
       <c r="C146" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D146" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E146" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F146">
         <v>4</v>
@@ -5836,398 +5928,398 @@
         <v>3</v>
       </c>
       <c r="H146" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="B147" t="s">
         <v>450</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
+        <v>440</v>
+      </c>
+      <c r="D147" t="s">
+        <v>441</v>
+      </c>
+      <c r="E147" t="s">
+        <v>59</v>
+      </c>
+      <c r="F147">
+        <v>2</v>
+      </c>
+      <c r="G147" t="s">
+        <v>3</v>
+      </c>
+      <c r="H147" t="s">
         <v>451</v>
       </c>
-      <c r="C147" t="s">
-        <v>444</v>
-      </c>
-      <c r="D147" t="s">
-        <v>445</v>
-      </c>
-      <c r="E147" t="s">
-        <v>60</v>
-      </c>
-      <c r="F147">
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>452</v>
+      </c>
+      <c r="B148" t="s">
+        <v>453</v>
+      </c>
+      <c r="C148" t="s">
+        <v>440</v>
+      </c>
+      <c r="D148" t="s">
+        <v>441</v>
+      </c>
+      <c r="E148" t="s">
+        <v>59</v>
+      </c>
+      <c r="F148">
+        <v>7</v>
+      </c>
+      <c r="G148" t="s">
         <v>4</v>
       </c>
-      <c r="G147" t="s">
-        <v>3</v>
-      </c>
-      <c r="H147" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>453</v>
-      </c>
-      <c r="B148" t="s">
+      <c r="H148" t="s">
         <v>454</v>
       </c>
-      <c r="C148" t="s">
-        <v>444</v>
-      </c>
-      <c r="D148" t="s">
-        <v>445</v>
-      </c>
-      <c r="E148" t="s">
-        <v>60</v>
-      </c>
-      <c r="F148">
-        <v>2</v>
-      </c>
-      <c r="G148" t="s">
-        <v>3</v>
-      </c>
-      <c r="H148" t="s">
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="B149" t="s">
         <v>456</v>
       </c>
-      <c r="B149" t="s">
-        <v>457</v>
-      </c>
       <c r="C149" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D149" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E149" t="s">
-        <v>60</v>
-      </c>
-      <c r="F149">
+        <v>59</v>
+      </c>
+      <c r="F149" s="19">
         <v>7</v>
       </c>
       <c r="G149" t="s">
         <v>4</v>
       </c>
       <c r="H149" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="B150" t="s">
+        <v>456</v>
+      </c>
+      <c r="C150" t="s">
+        <v>440</v>
+      </c>
+      <c r="D150" t="s">
+        <v>441</v>
+      </c>
+      <c r="E150" t="s">
+        <v>59</v>
+      </c>
+      <c r="H150" t="s">
         <v>459</v>
       </c>
-      <c r="B150" t="s">
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>460</v>
       </c>
-      <c r="C150" t="s">
-        <v>444</v>
-      </c>
-      <c r="D150" t="s">
-        <v>445</v>
-      </c>
-      <c r="E150" t="s">
-        <v>60</v>
-      </c>
-      <c r="F150" s="19">
+      <c r="B151" t="s">
+        <v>456</v>
+      </c>
+      <c r="C151" t="s">
+        <v>440</v>
+      </c>
+      <c r="D151" t="s">
+        <v>441</v>
+      </c>
+      <c r="E151" t="s">
+        <v>59</v>
+      </c>
+      <c r="H151" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>466</v>
+      </c>
+      <c r="B152" t="s">
+        <v>467</v>
+      </c>
+      <c r="C152" t="s">
+        <v>524</v>
+      </c>
+      <c r="D152" t="s">
+        <v>468</v>
+      </c>
+      <c r="E152" t="s">
+        <v>59</v>
+      </c>
+      <c r="F152">
         <v>7</v>
       </c>
-      <c r="G150" t="s">
-        <v>4</v>
-      </c>
-      <c r="H150" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>462</v>
-      </c>
-      <c r="B151" t="s">
-        <v>460</v>
-      </c>
-      <c r="C151" t="s">
-        <v>444</v>
-      </c>
-      <c r="D151" t="s">
-        <v>445</v>
-      </c>
-      <c r="E151" t="s">
-        <v>60</v>
-      </c>
-      <c r="H151" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>464</v>
-      </c>
-      <c r="B152" t="s">
-        <v>460</v>
-      </c>
-      <c r="C152" t="s">
-        <v>444</v>
-      </c>
-      <c r="D152" t="s">
-        <v>445</v>
-      </c>
-      <c r="E152" t="s">
-        <v>60</v>
+      <c r="G152" t="s">
+        <v>3</v>
       </c>
       <c r="H152" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
       <c r="B153" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C153" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
       <c r="D153" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E153" t="s">
-        <v>60</v>
-      </c>
-      <c r="F153">
-        <v>7</v>
-      </c>
-      <c r="G153" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="H153" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>510</v>
+        <v>469</v>
       </c>
       <c r="B154" t="s">
+        <v>470</v>
+      </c>
+      <c r="C154" t="s">
+        <v>524</v>
+      </c>
+      <c r="D154" t="s">
+        <v>468</v>
+      </c>
+      <c r="E154" t="s">
+        <v>59</v>
+      </c>
+      <c r="H154" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>471</v>
+      </c>
+      <c r="B155" t="s">
+        <v>467</v>
+      </c>
+      <c r="C155" t="s">
+        <v>524</v>
+      </c>
+      <c r="D155" t="s">
+        <v>468</v>
+      </c>
+      <c r="E155" t="s">
+        <v>59</v>
+      </c>
+      <c r="F155">
+        <v>8</v>
+      </c>
+      <c r="G155" t="s">
+        <v>3</v>
+      </c>
+      <c r="H155" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>472</v>
+      </c>
+      <c r="B156" t="s">
+        <v>473</v>
+      </c>
+      <c r="C156" t="s">
+        <v>524</v>
+      </c>
+      <c r="D156" t="s">
+        <v>468</v>
+      </c>
+      <c r="E156" t="s">
+        <v>59</v>
+      </c>
+      <c r="H156" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>474</v>
+      </c>
+      <c r="B157" t="s">
+        <v>467</v>
+      </c>
+      <c r="C157" t="s">
+        <v>524</v>
+      </c>
+      <c r="D157" t="s">
+        <v>468</v>
+      </c>
+      <c r="E157" t="s">
+        <v>59</v>
+      </c>
+      <c r="H157" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>162</v>
+      </c>
+      <c r="B158" t="s">
+        <v>467</v>
+      </c>
+      <c r="C158" t="s">
+        <v>524</v>
+      </c>
+      <c r="D158" t="s">
+        <v>468</v>
+      </c>
+      <c r="E158" t="s">
+        <v>59</v>
+      </c>
+      <c r="F158">
+        <v>8</v>
+      </c>
+      <c r="G158" t="s">
+        <v>3</v>
+      </c>
+      <c r="H158" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>201</v>
+      </c>
+      <c r="B159" t="s">
+        <v>467</v>
+      </c>
+      <c r="C159" t="s">
+        <v>524</v>
+      </c>
+      <c r="D159" t="s">
+        <v>468</v>
+      </c>
+      <c r="E159" t="s">
+        <v>59</v>
+      </c>
+      <c r="F159">
+        <v>5</v>
+      </c>
+      <c r="G159" t="s">
+        <v>3</v>
+      </c>
+      <c r="H159" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>475</v>
       </c>
-      <c r="C154" t="s">
-        <v>470</v>
-      </c>
-      <c r="D154" t="s">
-        <v>473</v>
-      </c>
-      <c r="E154" t="s">
-        <v>60</v>
-      </c>
-      <c r="H154" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>474</v>
-      </c>
-      <c r="B155" t="s">
-        <v>475</v>
-      </c>
-      <c r="C155" t="s">
-        <v>470</v>
-      </c>
-      <c r="D155" t="s">
-        <v>473</v>
-      </c>
-      <c r="E155" t="s">
-        <v>60</v>
-      </c>
-      <c r="H155" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="B160" t="s">
+        <v>467</v>
+      </c>
+      <c r="C160" t="s">
+        <v>524</v>
+      </c>
+      <c r="D160" t="s">
+        <v>468</v>
+      </c>
+      <c r="E160" t="s">
+        <v>59</v>
+      </c>
+      <c r="H160" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>476</v>
       </c>
-      <c r="B156" t="s">
-        <v>472</v>
-      </c>
-      <c r="C156" t="s">
-        <v>470</v>
-      </c>
-      <c r="D156" t="s">
-        <v>473</v>
-      </c>
-      <c r="E156" t="s">
-        <v>60</v>
-      </c>
-      <c r="F156">
-        <v>8</v>
-      </c>
-      <c r="G156" t="s">
-        <v>3</v>
-      </c>
-      <c r="H156" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="B161" t="s">
         <v>477</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C161" t="s">
+        <v>524</v>
+      </c>
+      <c r="D161" t="s">
+        <v>468</v>
+      </c>
+      <c r="E161" t="s">
+        <v>59</v>
+      </c>
+      <c r="F161">
+        <v>3</v>
+      </c>
+      <c r="G161" t="s">
+        <v>4</v>
+      </c>
+      <c r="H161" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>478</v>
       </c>
-      <c r="C157" t="s">
-        <v>470</v>
-      </c>
-      <c r="D157" t="s">
-        <v>473</v>
-      </c>
-      <c r="E157" t="s">
-        <v>60</v>
-      </c>
-      <c r="H157" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>479</v>
-      </c>
-      <c r="B158" t="s">
-        <v>472</v>
-      </c>
-      <c r="C158" t="s">
-        <v>470</v>
-      </c>
-      <c r="D158" t="s">
-        <v>473</v>
-      </c>
-      <c r="E158" t="s">
-        <v>60</v>
-      </c>
-      <c r="H158" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>165</v>
-      </c>
-      <c r="B159" t="s">
-        <v>472</v>
-      </c>
-      <c r="C159" t="s">
-        <v>470</v>
-      </c>
-      <c r="D159" t="s">
-        <v>473</v>
-      </c>
-      <c r="E159" t="s">
-        <v>60</v>
-      </c>
-      <c r="F159">
-        <v>8</v>
-      </c>
-      <c r="G159" t="s">
-        <v>3</v>
-      </c>
-      <c r="H159" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>204</v>
-      </c>
-      <c r="B160" t="s">
-        <v>472</v>
-      </c>
-      <c r="C160" t="s">
-        <v>470</v>
-      </c>
-      <c r="D160" t="s">
-        <v>473</v>
-      </c>
-      <c r="E160" t="s">
-        <v>60</v>
-      </c>
-      <c r="F160">
-        <v>5</v>
-      </c>
-      <c r="G160" t="s">
-        <v>3</v>
-      </c>
-      <c r="H160" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>480</v>
-      </c>
-      <c r="B161" t="s">
-        <v>472</v>
-      </c>
-      <c r="C161" t="s">
-        <v>470</v>
-      </c>
-      <c r="D161" t="s">
-        <v>473</v>
-      </c>
-      <c r="E161" t="s">
-        <v>60</v>
-      </c>
-      <c r="H161" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>481</v>
-      </c>
       <c r="B162" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C162" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
       <c r="D162" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E162" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G162" t="s">
         <v>4</v>
       </c>
       <c r="H162" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B163" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C163" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
       <c r="D163" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E163" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F163">
         <v>2</v>
@@ -6236,155 +6328,477 @@
         <v>4</v>
       </c>
       <c r="H163" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B164" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C164" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
       <c r="D164" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E164" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F164">
         <v>2</v>
       </c>
       <c r="G164" t="s">
+        <v>3</v>
+      </c>
+      <c r="H164" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>482</v>
+      </c>
+      <c r="B165" t="s">
+        <v>483</v>
+      </c>
+      <c r="C165" t="s">
+        <v>524</v>
+      </c>
+      <c r="D165" t="s">
+        <v>468</v>
+      </c>
+      <c r="E165" t="s">
+        <v>59</v>
+      </c>
+      <c r="F165">
+        <v>7</v>
+      </c>
+      <c r="G165" t="s">
         <v>4</v>
       </c>
-      <c r="H164" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="H165" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>484</v>
+      </c>
+      <c r="B166" t="s">
+        <v>485</v>
+      </c>
+      <c r="C166" t="s">
+        <v>524</v>
+      </c>
+      <c r="D166" t="s">
+        <v>468</v>
+      </c>
+      <c r="E166" t="s">
+        <v>59</v>
+      </c>
+      <c r="H166" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>486</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B167" t="s">
         <v>485</v>
       </c>
-      <c r="C165" t="s">
-        <v>470</v>
-      </c>
-      <c r="D165" t="s">
-        <v>473</v>
-      </c>
-      <c r="E165" t="s">
-        <v>60</v>
-      </c>
-      <c r="F165">
+      <c r="C167" t="s">
+        <v>524</v>
+      </c>
+      <c r="D167" t="s">
+        <v>468</v>
+      </c>
+      <c r="E167" t="s">
+        <v>59</v>
+      </c>
+      <c r="H167" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>487</v>
+      </c>
+      <c r="B168" t="s">
+        <v>488</v>
+      </c>
+      <c r="C168" t="s">
+        <v>524</v>
+      </c>
+      <c r="D168" t="s">
+        <v>468</v>
+      </c>
+      <c r="E168" t="s">
+        <v>59</v>
+      </c>
+      <c r="F168">
+        <v>7</v>
+      </c>
+      <c r="G168" t="s">
+        <v>3</v>
+      </c>
+      <c r="H168" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F169" s="1">
+        <v>7</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F170" s="1">
+        <v>7</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F171" s="1">
+        <v>4</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F172" s="1">
         <v>2</v>
       </c>
-      <c r="G165" t="s">
-        <v>3</v>
-      </c>
-      <c r="H165" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>487</v>
-      </c>
-      <c r="B166" t="s">
-        <v>488</v>
-      </c>
-      <c r="C166" t="s">
-        <v>470</v>
-      </c>
-      <c r="D166" t="s">
-        <v>473</v>
-      </c>
-      <c r="E166" t="s">
-        <v>60</v>
-      </c>
-      <c r="F166">
-        <v>7</v>
-      </c>
-      <c r="G166" t="s">
+      <c r="G172" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H172" s="1"/>
+    </row>
+    <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F173" s="1"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="1"/>
+    </row>
+    <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F174" s="1">
+        <v>1</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F175" s="1"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F176" s="1">
+        <v>1</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H166" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>489</v>
-      </c>
-      <c r="B167" t="s">
-        <v>490</v>
-      </c>
-      <c r="C167" t="s">
-        <v>470</v>
-      </c>
-      <c r="D167" t="s">
-        <v>473</v>
-      </c>
-      <c r="E167" t="s">
-        <v>60</v>
-      </c>
-      <c r="H167" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>491</v>
-      </c>
-      <c r="B168" t="s">
-        <v>490</v>
-      </c>
-      <c r="C168" t="s">
-        <v>470</v>
-      </c>
-      <c r="D168" t="s">
-        <v>473</v>
-      </c>
-      <c r="E168" t="s">
-        <v>60</v>
-      </c>
-      <c r="H168" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>492</v>
-      </c>
-      <c r="B169" t="s">
-        <v>493</v>
-      </c>
-      <c r="C169" t="s">
-        <v>470</v>
-      </c>
-      <c r="D169" t="s">
-        <v>473</v>
-      </c>
-      <c r="E169" t="s">
-        <v>60</v>
-      </c>
-      <c r="F169">
-        <v>7</v>
-      </c>
-      <c r="G169" t="s">
-        <v>3</v>
-      </c>
-      <c r="H169" t="s">
-        <v>505</v>
+      <c r="H176" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F177" s="1"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F178" s="1">
+        <v>2</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F179" s="1">
+        <v>2</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F180" s="1">
+        <v>2</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F181" s="1">
+        <v>1</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F182" s="1">
+        <v>1</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>538</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H48"/>
+  <autoFilter ref="A1:H47"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/assets/tookachi/roster.xlsx
+++ b/src/assets/tookachi/roster.xlsx
@@ -15,7 +15,7 @@
     <sheet name="roster" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">roster!$A$1:$H$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">roster!$A$1:$H$48</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="545">
   <si>
     <t>dojo</t>
   </si>
@@ -1701,6 +1701,15 @@
   </si>
   <si>
     <t>Laboda,Chris.JPG</t>
+  </si>
+  <si>
+    <t>Marian</t>
+  </si>
+  <si>
+    <t>Reiter</t>
+  </si>
+  <si>
+    <t>marian_reiter.jpg</t>
   </si>
 </sst>
 </file>
@@ -2211,10 +2220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I182"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C163" workbookViewId="0">
-      <selection activeCell="H180" sqref="H180"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2667,36 +2676,36 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>528</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="11">
+      <c r="E18" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="18">
         <v>6</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="18" t="s">
         <v>3</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>369</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>528</v>
@@ -2708,44 +2717,44 @@
         <v>59</v>
       </c>
       <c r="F19" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>528</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>529</v>
+        <v>62</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F20" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>26</v>
@@ -2760,47 +2769,47 @@
         <v>59</v>
       </c>
       <c r="F21" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>528</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>62</v>
+        <v>529</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F22" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>528</v>
@@ -2812,73 +2821,73 @@
         <v>59</v>
       </c>
       <c r="F23" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>528</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F24" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>528</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F25" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>528</v>
@@ -2890,44 +2899,44 @@
         <v>59</v>
       </c>
       <c r="F26" s="11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>528</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F27" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>58</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>7</v>
@@ -2941,39 +2950,39 @@
       <c r="E28" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
+      <c r="F28" s="11">
+        <v>5</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="11">
-        <v>8</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>67</v>
@@ -2987,18 +2996,22 @@
       <c r="E30" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="F30" s="11">
+        <v>8</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="H30" s="12" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>526</v>
@@ -3009,22 +3022,18 @@
       <c r="E31" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="11">
-        <v>2</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
       <c r="H31" s="12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>526</v>
@@ -3036,18 +3045,18 @@
         <v>59</v>
       </c>
       <c r="F32" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>74</v>
@@ -3068,64 +3077,64 @@
         <v>3</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F34" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>527</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F35" s="11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>83</v>
@@ -3140,70 +3149,70 @@
         <v>59</v>
       </c>
       <c r="F36" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>527</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F37" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>527</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F38" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>88</v>
@@ -3218,21 +3227,21 @@
         <v>59</v>
       </c>
       <c r="F39" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>527</v>
@@ -3247,18 +3256,18 @@
         <v>1</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>464</v>
+        <v>90</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>465</v>
+        <v>91</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>527</v>
@@ -3269,44 +3278,44 @@
       <c r="E41" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="F41" s="11">
+        <v>1</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="H41" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>92</v>
+        <v>464</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>93</v>
+        <v>465</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>527</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F42" s="11">
-        <v>1</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
       <c r="H42" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>527</v>
@@ -3317,36 +3326,36 @@
       <c r="E43" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+      <c r="F43" s="11">
+        <v>1</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="H43" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>527</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F44" s="11">
-        <v>1</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
       <c r="H44" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -3354,13 +3363,13 @@
         <v>96</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>527</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>59</v>
@@ -3372,15 +3381,15 @@
         <v>4</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>527</v>
@@ -3398,15 +3407,15 @@
         <v>4</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>527</v>
@@ -3418,47 +3427,47 @@
         <v>59</v>
       </c>
       <c r="F47" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H47" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="11">
+        <v>3</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="12" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F48" s="2">
-        <v>6</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>124</v>
@@ -3470,21 +3479,21 @@
         <v>60</v>
       </c>
       <c r="F49" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>124</v>
@@ -3502,15 +3511,15 @@
         <v>3</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>124</v>
@@ -3528,15 +3537,15 @@
         <v>3</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>124</v>
@@ -3548,21 +3557,21 @@
         <v>60</v>
       </c>
       <c r="F52" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>124</v>
@@ -3574,21 +3583,21 @@
         <v>60</v>
       </c>
       <c r="F53" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>124</v>
@@ -3606,15 +3615,15 @@
         <v>4</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>124</v>
@@ -3626,18 +3635,18 @@
         <v>60</v>
       </c>
       <c r="F55" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>146</v>
@@ -3651,79 +3660,79 @@
       <c r="E56" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="1"/>
+      <c r="F56" s="2">
+        <v>4</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="H56" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="14" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F57" s="11">
-        <v>8</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="F58" s="11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>249</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="F59" s="11">
         <v>6</v>
@@ -3732,21 +3741,21 @@
         <v>3</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>151</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>59</v>
@@ -3758,47 +3767,47 @@
         <v>3</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>165</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>151</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F61" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>59</v>
@@ -3810,47 +3819,47 @@
         <v>3</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F63" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>151</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>59</v>
@@ -3862,24 +3871,24 @@
         <v>3</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>177</v>
+        <v>264</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>151</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>179</v>
+        <v>59</v>
       </c>
       <c r="F65" s="11">
         <v>4</v>
@@ -3888,7 +3897,7 @@
         <v>3</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -3896,16 +3905,16 @@
         <v>96</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>151</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="F66" s="11">
         <v>4</v>
@@ -3914,21 +3923,21 @@
         <v>3</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>251</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>151</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>59</v>
@@ -3940,41 +3949,41 @@
         <v>3</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>186</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>151</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F68" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>151</v>
@@ -3992,21 +4001,21 @@
         <v>3</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>59</v>
@@ -4018,21 +4027,21 @@
         <v>3</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>195</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>59</v>
@@ -4044,47 +4053,47 @@
         <v>3</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F72" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>151</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>59</v>
@@ -4096,21 +4105,21 @@
         <v>3</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>151</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>59</v>
@@ -4122,21 +4131,21 @@
         <v>3</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>151</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>59</v>
@@ -4148,21 +4157,21 @@
         <v>3</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>151</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>59</v>
@@ -4174,21 +4183,21 @@
         <v>3</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>59</v>
@@ -4200,47 +4209,47 @@
         <v>3</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>195</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F78" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>195</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>59</v>
@@ -4252,21 +4261,21 @@
         <v>3</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>195</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>59</v>
@@ -4278,21 +4287,21 @@
         <v>3</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>59</v>
@@ -4304,21 +4313,21 @@
         <v>3</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>59</v>
@@ -4327,27 +4336,27 @@
         <v>1</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
-        <v>231</v>
+        <v>42</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="F83" s="11">
         <v>1</v>
@@ -4356,24 +4365,24 @@
         <v>4</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="F84" s="11">
         <v>1</v>
@@ -4382,95 +4391,99 @@
         <v>4</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F85" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F86" s="16">
-        <v>1</v>
-      </c>
-      <c r="G86" s="17" t="s">
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="F86" s="11">
+        <v>6</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="H86" s="15" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>235</v>
+        <v>157</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
+        <v>158</v>
+      </c>
+      <c r="F87" s="16">
+        <v>1</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="H87" s="15" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>59</v>
@@ -4478,21 +4491,21 @@
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
       <c r="H88" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>170</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>59</v>
@@ -4500,21 +4513,21 @@
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
       <c r="H89" s="15" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>59</v>
@@ -4522,21 +4535,21 @@
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
       <c r="H90" s="15" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="E91" s="11" t="s">
         <v>59</v>
@@ -4544,41 +4557,37 @@
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
       <c r="H91" s="15" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>267</v>
+        <v>170</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>268</v>
+        <v>171</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F92" s="11">
-        <v>3</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H92" s="12" t="s">
-        <v>269</v>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="15" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>267</v>
@@ -4590,18 +4599,18 @@
         <v>59</v>
       </c>
       <c r="F93" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>271</v>
@@ -4619,15 +4628,15 @@
         <v>1</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>271</v>
@@ -4641,22 +4650,22 @@
       <c r="E95" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F95" s="16">
-        <v>7</v>
+      <c r="F95" s="11">
+        <v>1</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>267</v>
@@ -4667,45 +4676,45 @@
       <c r="E96" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F96" s="11">
-        <v>1</v>
+      <c r="F96" s="16">
+        <v>7</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>149</v>
+        <v>276</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F97" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>149</v>
@@ -4720,21 +4729,21 @@
         <v>60</v>
       </c>
       <c r="F98" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G98" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>284</v>
+        <v>149</v>
       </c>
       <c r="C99" s="11" t="s">
         <v>280</v>
@@ -4746,21 +4755,21 @@
         <v>60</v>
       </c>
       <c r="F99" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G99" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>280</v>
@@ -4772,18 +4781,18 @@
         <v>60</v>
       </c>
       <c r="F100" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G100" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>286</v>
@@ -4798,21 +4807,21 @@
         <v>60</v>
       </c>
       <c r="F101" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>280</v>
@@ -4824,18 +4833,18 @@
         <v>60</v>
       </c>
       <c r="F102" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
-        <v>20</v>
+        <v>288</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>289</v>
@@ -4849,70 +4858,70 @@
       <c r="E103" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
+      <c r="F103" s="11">
+        <v>2</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="H103" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>280</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E104" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F104" s="11">
-        <v>2</v>
-      </c>
-      <c r="G104" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
       <c r="H104" s="12" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>280</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="E105" s="11" t="s">
         <v>60</v>
       </c>
       <c r="F105" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>280</v>
@@ -4924,18 +4933,18 @@
         <v>60</v>
       </c>
       <c r="F106" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>463</v>
+        <v>301</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>297</v>
@@ -4949,16 +4958,22 @@
       <c r="E107" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="12"/>
+      <c r="F107" s="11">
+        <v>1</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>280</v>
@@ -4975,10 +4990,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
-        <v>69</v>
+        <v>299</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>280</v>
@@ -4989,106 +5004,100 @@
       <c r="E109" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F109" s="11">
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="12"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F110" s="11">
         <v>4</v>
       </c>
-      <c r="G109" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H109" s="12" t="s">
+      <c r="G110" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H110" s="12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B111" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D111" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="E110" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F110" s="5">
+      <c r="E111" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F111" s="5">
         <v>8</v>
       </c>
-      <c r="G110" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H110" s="6" t="s">
+      <c r="G111" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H111" s="6" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>315</v>
-      </c>
-      <c r="B111" t="s">
-        <v>316</v>
-      </c>
-      <c r="C111" t="s">
-        <v>525</v>
-      </c>
-      <c r="D111" t="s">
-        <v>317</v>
-      </c>
-      <c r="E111" t="s">
-        <v>59</v>
-      </c>
-      <c r="F111">
-        <v>4</v>
-      </c>
-      <c r="G111" t="s">
-        <v>3</v>
-      </c>
-      <c r="H111" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B112" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C112" t="s">
         <v>525</v>
       </c>
       <c r="D112" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E112" t="s">
         <v>59</v>
       </c>
       <c r="F112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G112" t="s">
         <v>3</v>
       </c>
       <c r="H112" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B113" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C113" t="s">
         <v>525</v>
       </c>
       <c r="D113" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E113" t="s">
         <v>59</v>
@@ -5100,21 +5109,21 @@
         <v>3</v>
       </c>
       <c r="H113" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B114" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="C114" t="s">
         <v>525</v>
       </c>
       <c r="D114" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="E114" t="s">
         <v>59</v>
@@ -5126,15 +5135,15 @@
         <v>3</v>
       </c>
       <c r="H114" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B115" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="C115" t="s">
         <v>525</v>
@@ -5152,15 +5161,15 @@
         <v>3</v>
       </c>
       <c r="H115" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B116" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C116" t="s">
         <v>525</v>
@@ -5172,21 +5181,21 @@
         <v>59</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G116" t="s">
         <v>3</v>
       </c>
       <c r="H116" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B117" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C117" t="s">
         <v>525</v>
@@ -5198,18 +5207,18 @@
         <v>59</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G117" t="s">
         <v>3</v>
       </c>
       <c r="H117" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="B118" t="s">
         <v>331</v>
@@ -5230,15 +5239,15 @@
         <v>3</v>
       </c>
       <c r="H118" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B119" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="C119" t="s">
         <v>525</v>
@@ -5253,18 +5262,18 @@
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H119" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>332</v>
+        <v>52</v>
       </c>
       <c r="B120" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="C120" t="s">
         <v>525</v>
@@ -5279,24 +5288,24 @@
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H120" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="B121" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C121" t="s">
         <v>525</v>
       </c>
       <c r="D121" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="E121" t="s">
         <v>59</v>
@@ -5305,182 +5314,182 @@
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H121" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>336</v>
+        <v>278</v>
       </c>
       <c r="B122" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C122" t="s">
         <v>525</v>
       </c>
       <c r="D122" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="E122" t="s">
         <v>59</v>
       </c>
       <c r="F122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G122" t="s">
         <v>4</v>
       </c>
       <c r="H122" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B123" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="C123" t="s">
         <v>525</v>
       </c>
       <c r="D123" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E123" t="s">
         <v>59</v>
       </c>
       <c r="F123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G123" t="s">
         <v>4</v>
       </c>
       <c r="H123" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B124" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="C124" t="s">
         <v>525</v>
       </c>
       <c r="D124" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="E124" t="s">
         <v>59</v>
       </c>
       <c r="F124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G124" t="s">
         <v>4</v>
       </c>
       <c r="H124" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B125" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C125" t="s">
         <v>525</v>
       </c>
       <c r="D125" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="E125" t="s">
         <v>59</v>
       </c>
+      <c r="F125">
+        <v>4</v>
+      </c>
+      <c r="G125" t="s">
+        <v>4</v>
+      </c>
       <c r="H125" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>142</v>
+        <v>341</v>
       </c>
       <c r="B126" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="C126" t="s">
         <v>525</v>
       </c>
       <c r="D126" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E126" t="s">
         <v>59</v>
       </c>
       <c r="H126" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>342</v>
+        <v>142</v>
       </c>
       <c r="B127" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C127" t="s">
         <v>525</v>
       </c>
       <c r="D127" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="E127" t="s">
         <v>59</v>
       </c>
       <c r="H127" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="B128" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="C128" t="s">
-        <v>390</v>
+        <v>525</v>
       </c>
       <c r="D128" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="E128" t="s">
         <v>59</v>
       </c>
-      <c r="F128">
-        <v>6</v>
-      </c>
-      <c r="G128" t="s">
-        <v>3</v>
-      </c>
       <c r="H128" t="s">
-        <v>398</v>
+        <v>355</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B129" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C129" t="s">
         <v>390</v>
@@ -5492,21 +5501,21 @@
         <v>59</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G129" t="s">
         <v>3</v>
       </c>
       <c r="H129" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>149</v>
+        <v>388</v>
       </c>
       <c r="B130" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C130" t="s">
         <v>390</v>
@@ -5518,90 +5527,90 @@
         <v>59</v>
       </c>
       <c r="F130">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H130" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>392</v>
+        <v>149</v>
       </c>
       <c r="B131" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C131" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D131" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E131" t="s">
         <v>59</v>
       </c>
       <c r="F131">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G131" t="s">
         <v>4</v>
       </c>
       <c r="H131" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B132" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C132" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D132" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="E132" t="s">
         <v>59</v>
       </c>
+      <c r="F132">
+        <v>3</v>
+      </c>
+      <c r="G132" t="s">
+        <v>4</v>
+      </c>
       <c r="H132" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
+        <v>396</v>
+      </c>
+      <c r="B133" t="s">
+        <v>397</v>
+      </c>
+      <c r="C133" t="s">
+        <v>390</v>
+      </c>
+      <c r="D133" t="s">
+        <v>387</v>
+      </c>
+      <c r="E133" t="s">
+        <v>59</v>
+      </c>
+      <c r="H133" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>403</v>
-      </c>
-      <c r="B133" t="s">
-        <v>404</v>
-      </c>
-      <c r="C133" t="s">
-        <v>405</v>
-      </c>
-      <c r="D133" t="s">
-        <v>406</v>
-      </c>
-      <c r="E133" t="s">
-        <v>59</v>
-      </c>
-      <c r="F133">
-        <v>5</v>
-      </c>
-      <c r="G133" t="s">
-        <v>3</v>
-      </c>
-      <c r="H133" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>407</v>
       </c>
       <c r="B134" t="s">
         <v>404</v>
@@ -5616,44 +5625,47 @@
         <v>59</v>
       </c>
       <c r="F134">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G134" t="s">
         <v>3</v>
       </c>
       <c r="H134" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>407</v>
+      </c>
+      <c r="B135" t="s">
+        <v>404</v>
+      </c>
+      <c r="C135" t="s">
+        <v>405</v>
+      </c>
+      <c r="D135" t="s">
+        <v>406</v>
+      </c>
+      <c r="E135" t="s">
+        <v>59</v>
+      </c>
+      <c r="F135">
+        <v>3</v>
+      </c>
+      <c r="G135" t="s">
+        <v>3</v>
+      </c>
+      <c r="H135" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="I135" s="1"/>
     </row>
     <row r="136" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>197</v>
+        <v>409</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>411</v>
@@ -5667,16 +5679,16 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I136" s="1"/>
     </row>
     <row r="137" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>414</v>
+        <v>197</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>411</v>
@@ -5690,16 +5702,16 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I137" s="1"/>
     </row>
     <row r="138" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>411</v>
@@ -5710,23 +5722,19 @@
       <c r="E138" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F138" s="2">
-        <v>9</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
       <c r="H138" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I138" s="1"/>
     </row>
     <row r="139" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>411</v>
@@ -5738,22 +5746,22 @@
         <v>60</v>
       </c>
       <c r="F139" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="I139" s="1"/>
     </row>
     <row r="140" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>411</v>
@@ -5765,45 +5773,46 @@
         <v>60</v>
       </c>
       <c r="F140" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H140" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F141" s="2">
+        <v>7</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H141" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>428</v>
-      </c>
-      <c r="B141" t="s">
-        <v>27</v>
-      </c>
-      <c r="C141" t="s">
-        <v>429</v>
-      </c>
-      <c r="D141" t="s">
-        <v>430</v>
-      </c>
-      <c r="E141" t="s">
-        <v>59</v>
-      </c>
-      <c r="F141">
-        <v>8</v>
-      </c>
-      <c r="G141" t="s">
-        <v>3</v>
-      </c>
-      <c r="H141" t="s">
-        <v>431</v>
-      </c>
+      <c r="I141" s="1"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B142" t="s">
         <v>27</v>
@@ -5824,67 +5833,67 @@
         <v>3</v>
       </c>
       <c r="H142" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B143" t="s">
-        <v>435</v>
+        <v>27</v>
       </c>
       <c r="C143" t="s">
         <v>429</v>
       </c>
       <c r="D143" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="E143" t="s">
         <v>59</v>
       </c>
       <c r="F143">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G143" t="s">
         <v>3</v>
       </c>
       <c r="H143" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B144" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C144" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="D144" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E144" t="s">
         <v>59</v>
       </c>
       <c r="F144">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G144" t="s">
         <v>3</v>
       </c>
       <c r="H144" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B145" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C145" t="s">
         <v>440</v>
@@ -5896,21 +5905,21 @@
         <v>59</v>
       </c>
       <c r="F145">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G145" t="s">
         <v>3</v>
       </c>
       <c r="H145" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B146" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C146" t="s">
         <v>440</v>
@@ -5928,15 +5937,15 @@
         <v>3</v>
       </c>
       <c r="H146" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B147" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C147" t="s">
         <v>440</v>
@@ -5948,21 +5957,21 @@
         <v>59</v>
       </c>
       <c r="F147">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G147" t="s">
         <v>3</v>
       </c>
       <c r="H147" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B148" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C148" t="s">
         <v>440</v>
@@ -5974,21 +5983,21 @@
         <v>59</v>
       </c>
       <c r="F148">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G148" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H148" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B149" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C149" t="s">
         <v>440</v>
@@ -5999,19 +6008,19 @@
       <c r="E149" t="s">
         <v>59</v>
       </c>
-      <c r="F149" s="19">
+      <c r="F149">
         <v>7</v>
       </c>
       <c r="G149" t="s">
         <v>4</v>
       </c>
       <c r="H149" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B150" t="s">
         <v>456</v>
@@ -6025,13 +6034,19 @@
       <c r="E150" t="s">
         <v>59</v>
       </c>
+      <c r="F150" s="19">
+        <v>7</v>
+      </c>
+      <c r="G150" t="s">
+        <v>4</v>
+      </c>
       <c r="H150" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B151" t="s">
         <v>456</v>
@@ -6046,41 +6061,35 @@
         <v>59</v>
       </c>
       <c r="H151" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B152" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="C152" t="s">
-        <v>524</v>
+        <v>440</v>
       </c>
       <c r="D152" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="E152" t="s">
         <v>59</v>
       </c>
-      <c r="F152">
-        <v>7</v>
-      </c>
-      <c r="G152" t="s">
-        <v>3</v>
-      </c>
       <c r="H152" t="s">
-        <v>501</v>
+        <v>461</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>505</v>
+        <v>466</v>
       </c>
       <c r="B153" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C153" t="s">
         <v>524</v>
@@ -6091,13 +6100,19 @@
       <c r="E153" t="s">
         <v>59</v>
       </c>
+      <c r="F153">
+        <v>7</v>
+      </c>
+      <c r="G153" t="s">
+        <v>3</v>
+      </c>
       <c r="H153" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="B154" t="s">
         <v>470</v>
@@ -6112,15 +6127,15 @@
         <v>59</v>
       </c>
       <c r="H154" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B155" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C155" t="s">
         <v>524</v>
@@ -6131,22 +6146,16 @@
       <c r="E155" t="s">
         <v>59</v>
       </c>
-      <c r="F155">
-        <v>8</v>
-      </c>
-      <c r="G155" t="s">
-        <v>3</v>
-      </c>
       <c r="H155" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B156" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C156" t="s">
         <v>524</v>
@@ -6157,16 +6166,22 @@
       <c r="E156" t="s">
         <v>59</v>
       </c>
+      <c r="F156">
+        <v>8</v>
+      </c>
+      <c r="G156" t="s">
+        <v>3</v>
+      </c>
       <c r="H156" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B157" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C157" t="s">
         <v>524</v>
@@ -6178,12 +6193,12 @@
         <v>59</v>
       </c>
       <c r="H157" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>162</v>
+        <v>474</v>
       </c>
       <c r="B158" t="s">
         <v>467</v>
@@ -6197,19 +6212,13 @@
       <c r="E158" t="s">
         <v>59</v>
       </c>
-      <c r="F158">
-        <v>8</v>
-      </c>
-      <c r="G158" t="s">
-        <v>3</v>
-      </c>
       <c r="H158" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="B159" t="s">
         <v>467</v>
@@ -6224,18 +6233,18 @@
         <v>59</v>
       </c>
       <c r="F159">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G159" t="s">
         <v>3</v>
       </c>
       <c r="H159" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
       <c r="B160" t="s">
         <v>467</v>
@@ -6249,16 +6258,22 @@
       <c r="E160" t="s">
         <v>59</v>
       </c>
+      <c r="F160">
+        <v>5</v>
+      </c>
+      <c r="G160" t="s">
+        <v>3</v>
+      </c>
       <c r="H160" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B161" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="C161" t="s">
         <v>524</v>
@@ -6269,19 +6284,13 @@
       <c r="E161" t="s">
         <v>59</v>
       </c>
-      <c r="F161">
-        <v>3</v>
-      </c>
-      <c r="G161" t="s">
-        <v>4</v>
-      </c>
       <c r="H161" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B162" t="s">
         <v>477</v>
@@ -6296,21 +6305,21 @@
         <v>59</v>
       </c>
       <c r="F162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G162" t="s">
         <v>4</v>
       </c>
       <c r="H162" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B163" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C163" t="s">
         <v>524</v>
@@ -6328,12 +6337,12 @@
         <v>4</v>
       </c>
       <c r="H163" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B164" t="s">
         <v>480</v>
@@ -6351,18 +6360,18 @@
         <v>2</v>
       </c>
       <c r="G164" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H164" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B165" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C165" t="s">
         <v>524</v>
@@ -6374,21 +6383,21 @@
         <v>59</v>
       </c>
       <c r="F165">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G165" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H165" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B166" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C166" t="s">
         <v>524</v>
@@ -6399,13 +6408,19 @@
       <c r="E166" t="s">
         <v>59</v>
       </c>
+      <c r="F166">
+        <v>7</v>
+      </c>
+      <c r="G166" t="s">
+        <v>4</v>
+      </c>
       <c r="H166" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B167" t="s">
         <v>485</v>
@@ -6420,15 +6435,15 @@
         <v>59</v>
       </c>
       <c r="H167" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B168" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C168" t="s">
         <v>524</v>
@@ -6439,45 +6454,39 @@
       <c r="E168" t="s">
         <v>59</v>
       </c>
-      <c r="F168">
+      <c r="H168" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>487</v>
+      </c>
+      <c r="B169" t="s">
+        <v>488</v>
+      </c>
+      <c r="C169" t="s">
+        <v>524</v>
+      </c>
+      <c r="D169" t="s">
+        <v>468</v>
+      </c>
+      <c r="E169" t="s">
+        <v>59</v>
+      </c>
+      <c r="F169">
         <v>7</v>
       </c>
-      <c r="G168" t="s">
-        <v>3</v>
-      </c>
-      <c r="H168" t="s">
+      <c r="G169" t="s">
+        <v>3</v>
+      </c>
+      <c r="H169" t="s">
         <v>500</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F169" s="1">
-        <v>7</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>509</v>
@@ -6498,15 +6507,15 @@
         <v>3</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>508</v>
@@ -6518,21 +6527,21 @@
         <v>59</v>
       </c>
       <c r="F171" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
-        <v>511</v>
+        <v>201</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>508</v>
@@ -6544,16 +6553,18 @@
         <v>59</v>
       </c>
       <c r="F172" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H172" s="1"/>
+      <c r="H172" s="1" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>512</v>
@@ -6567,16 +6578,20 @@
       <c r="E173" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F173" s="1"/>
-      <c r="G173" s="2"/>
+      <c r="F173" s="1">
+        <v>2</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H173" s="1"/>
     </row>
     <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>334</v>
+        <v>512</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>508</v>
@@ -6587,19 +6602,13 @@
       <c r="E174" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F174" s="1">
-        <v>1</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>534</v>
-      </c>
+      <c r="F174" s="1"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="1"/>
     </row>
     <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
-        <v>16</v>
+        <v>522</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>334</v>
@@ -6613,18 +6622,22 @@
       <c r="E175" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F175" s="1"/>
-      <c r="G175" s="2"/>
+      <c r="F175" s="1">
+        <v>1</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H175" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
-        <v>521</v>
+        <v>16</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>514</v>
+        <v>334</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>508</v>
@@ -6635,19 +6648,15 @@
       <c r="E176" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F176" s="1">
-        <v>1</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F176" s="1"/>
+      <c r="G176" s="2"/>
       <c r="H176" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
-        <v>16</v>
+        <v>521</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>514</v>
@@ -6661,18 +6670,22 @@
       <c r="E177" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F177" s="1"/>
-      <c r="G177" s="2"/>
+      <c r="F177" s="1">
+        <v>1</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H177" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
-        <v>383</v>
+        <v>16</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>508</v>
@@ -6683,22 +6696,18 @@
       <c r="E178" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F178" s="1">
-        <v>2</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="F178" s="1"/>
+      <c r="G178" s="2"/>
       <c r="H178" s="1" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
-        <v>520</v>
+        <v>383</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>508</v>
@@ -6713,15 +6722,15 @@
         <v>2</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>516</v>
@@ -6742,15 +6751,15 @@
         <v>4</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>508</v>
@@ -6762,21 +6771,21 @@
         <v>59</v>
       </c>
       <c r="F181" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>507</v>
+        <v>4</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
-        <v>19</v>
+        <v>518</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>18</v>
+        <v>517</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>508</v>
@@ -6791,14 +6800,40 @@
         <v>1</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>3</v>
+        <v>507</v>
       </c>
       <c r="H182" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F183" s="1">
+        <v>1</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H183" s="1" t="s">
         <v>538</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H47"/>
+  <autoFilter ref="A1:H48"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/assets/tookachi/roster.xlsx
+++ b/src/assets/tookachi/roster.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="563">
   <si>
     <t>dojo</t>
   </si>
@@ -1710,6 +1710,60 @@
   </si>
   <si>
     <t>marian_reiter.jpg</t>
+  </si>
+  <si>
+    <t>Yuji</t>
+  </si>
+  <si>
+    <t>Uza</t>
+  </si>
+  <si>
+    <t>Chicago Shidokan</t>
+  </si>
+  <si>
+    <t>Chicago, Illinois</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>Janicevic</t>
+  </si>
+  <si>
+    <t>Chopra</t>
+  </si>
+  <si>
+    <t>Nikhil</t>
+  </si>
+  <si>
+    <t>Bloomfield Shidokan</t>
+  </si>
+  <si>
+    <t>Niketh</t>
+  </si>
+  <si>
+    <t>Bloomfield, Michigan</t>
+  </si>
+  <si>
+    <t>Dominick</t>
+  </si>
+  <si>
+    <t>Shoha</t>
+  </si>
+  <si>
+    <t>Lou</t>
+  </si>
+  <si>
+    <t>Grand Rapids Shidokan</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Mayne</t>
+  </si>
+  <si>
+    <t>Talbot</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1800,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1863,11 +1917,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1905,6 +1979,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2220,10 +2309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I183"/>
+  <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6832,6 +6921,215 @@
         <v>538</v>
       </c>
     </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="B184" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="C184" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="D184" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="E184" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F184" s="21">
+        <v>6</v>
+      </c>
+      <c r="G184" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="B185" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="C185" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="D185" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="E185" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A186" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="B186" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="C186" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="D186" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="E186" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F186" s="23">
+        <v>1</v>
+      </c>
+      <c r="G186" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A187" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="B187" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="C187" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="D187" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="E187" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F187" s="23">
+        <v>1</v>
+      </c>
+      <c r="G187" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A188" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="B188" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="C188" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="D188" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="E188" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F188" s="23">
+        <v>1</v>
+      </c>
+      <c r="G188" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A189" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="B189" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="C189" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="D189" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="E189" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F189" s="23">
+        <v>7</v>
+      </c>
+      <c r="G189" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A190" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B190" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="C190" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="D190" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="E190" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F190" s="23">
+        <v>5</v>
+      </c>
+      <c r="G190" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A191" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="B191" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C191" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="D191" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E191" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A192" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="B192" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="C192" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="D192" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E192" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F192" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A193" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B193" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="C193" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="D193" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H48"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/tookachi/roster.xlsx
+++ b/src/assets/tookachi/roster.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="568">
   <si>
     <t>dojo</t>
   </si>
@@ -1764,6 +1764,21 @@
   </si>
   <si>
     <t>Talbot</t>
+  </si>
+  <si>
+    <t>nikhilchopra.jpg</t>
+  </si>
+  <si>
+    <t>nikethchopra.jpg</t>
+  </si>
+  <si>
+    <t>domshoha.jpg</t>
+  </si>
+  <si>
+    <t>loushoha.jpg</t>
+  </si>
+  <si>
+    <t>steveshoha.jpg</t>
   </si>
 </sst>
 </file>
@@ -1941,7 +1956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1994,6 +2009,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2312,7 +2330,7 @@
   <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="B193" sqref="B193"/>
+      <selection activeCell="I187" sqref="I187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6978,10 +6996,13 @@
         <v>59</v>
       </c>
       <c r="F186" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G186" s="24" t="s">
         <v>3</v>
+      </c>
+      <c r="H186" s="25" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7001,10 +7022,13 @@
         <v>59</v>
       </c>
       <c r="F187" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G187" s="24" t="s">
         <v>3</v>
+      </c>
+      <c r="H187" s="25" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7029,6 +7053,9 @@
       <c r="G188" s="24" t="s">
         <v>3</v>
       </c>
+      <c r="H188" s="25" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="189" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="20" t="s">
@@ -7052,6 +7079,9 @@
       <c r="G189" s="24" t="s">
         <v>3</v>
       </c>
+      <c r="H189" s="25" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="190" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="20" t="s">
@@ -7075,6 +7105,9 @@
       <c r="G190" s="24" t="s">
         <v>3</v>
       </c>
+      <c r="H190" s="25" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="191" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="20" t="s">
@@ -7092,6 +7125,7 @@
       <c r="E191" s="21" t="s">
         <v>59</v>
       </c>
+      <c r="H191" s="25"/>
     </row>
     <row r="192" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="20" t="s">
@@ -7112,8 +7146,9 @@
       <c r="F192" s="23">
         <v>8</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H192" s="25"/>
+    </row>
+    <row r="193" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="20" t="s">
         <v>311</v>
       </c>
@@ -7129,6 +7164,7 @@
       <c r="E193" s="21" t="s">
         <v>59</v>
       </c>
+      <c r="H193" s="25"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H48"/>

--- a/src/assets/tookachi/roster.xlsx
+++ b/src/assets/tookachi/roster.xlsx
@@ -2330,7 +2330,7 @@
   <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="I187" sqref="I187"/>
+      <selection activeCell="B187" sqref="B187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6981,10 +6981,10 @@
     </row>
     <row r="186" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="B186" s="21" t="s">
         <v>551</v>
-      </c>
-      <c r="B186" s="21" t="s">
-        <v>552</v>
       </c>
       <c r="C186" s="21" t="s">
         <v>553</v>
@@ -7007,10 +7007,10 @@
     </row>
     <row r="187" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="B187" s="21" t="s">
         <v>551</v>
-      </c>
-      <c r="B187" s="21" t="s">
-        <v>554</v>
       </c>
       <c r="C187" s="21" t="s">
         <v>553</v>
